--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -88,31 +88,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>синус</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -166,159 +141,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$50</c:f>
+              <c:f>Лист1!$A$1:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19866900000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38941799999999999</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56464199999999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71735599999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84147099999999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93203899999999995</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98545000000000005</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99957399999999996</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97384800000000005</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90929700000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80849599999999999</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67546300000000004</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51550099999999999</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33498800000000001</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14112</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.8374099999999998E-2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.25554100000000002</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.44252000000000002</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.61185800000000001</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.75680199999999997</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.87157600000000002</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.95160199999999995</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.99369099999999999</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.99616499999999997</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.958924</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.88345499999999999</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.77276400000000001</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.63126700000000002</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.46460200000000001</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.27941500000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.3089399999999994E-2</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.116549</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31154100000000001</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49411300000000002</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.65698699999999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.79366800000000004</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.89870799999999995</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.96792</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99854299999999996</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98935799999999996</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.94073099999999998</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.854599</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.73439699999999997</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.58491700000000002</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.41211799999999998</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.22289</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.47754E-2</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.17432700000000001</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.366479</c:v>
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>39.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +751,1269 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9D9-4E50-A9C8-9B1D5659EE8C}"/>
+              <c16:uniqueId val="{00000000-BF3E-4687-A302-8E0D8D92550E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$B$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-10.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-11.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-11.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-12.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-12.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-13.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-13.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-13.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-14.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-14.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-14.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-14.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-15.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-15.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-15.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-16.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-17.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-18.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-19.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-20.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-20.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-21.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-21.4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-21.6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-21.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-22.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-22.4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-22.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-22.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-23.2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-23.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-23.6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-23.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-24.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-24.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-24.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-24.8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-25.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-25.4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-25.6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-25.8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-26.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-26.4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-26.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-26.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-27.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-27.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-27.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-27.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-28.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-28.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-28.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-28.8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-29.2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-29.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-29.6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-29.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-30.2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-30.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-30.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-30.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-31.2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-31.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-31.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-31.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-32.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-33.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-33.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-34.4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-34.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-35.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-35.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-36.4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-36.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-37.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-37.6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-38.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-38.6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-39.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-39.6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-39.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF3E-4687-A302-8E0D8D92550E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$C$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF3E-4687-A302-8E0D8D92550E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,11 +2026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1048692719"/>
-        <c:axId val="1048691471"/>
+        <c:axId val="2144976144"/>
+        <c:axId val="2144975728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1048692719"/>
+        <c:axId val="2144976144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +2072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048691471"/>
+        <c:crossAx val="2144975728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -393,7 +2080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1048691471"/>
+        <c:axId val="2144975728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048692719"/>
+        <c:crossAx val="2144976144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -456,6 +2143,1546 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$1:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.84147099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93203899999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98545000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99957399999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97384800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90929700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80849599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67546300000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51550099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33498800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.8374099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.25554100000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.44252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.61185800000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.75680199999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.87157600000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.95160199999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.99369099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.99616499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.958924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.88345499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.77276400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.63126700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.46460200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.27941500000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.3089399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.116549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31154100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49411300000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65698699999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79366800000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89870799999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96792</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99854299999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98935799999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94073099999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.854599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73439699999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58491700000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41211799999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.47754E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.17432700000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.366479</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.54402099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.69987500000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.82782599999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.92277500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.98093600000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.99999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.97917799999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.91932899999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.82282900000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.69352499999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.53657299999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.35822900000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.165604</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3623E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.23150999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42016700000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.59207399999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74037600000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85916199999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94369599999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99060700000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.998027</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96565800000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.894791</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.78825199999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.65028799999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48639900000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.303118</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.107754</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9.19069E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.28790300000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.47242200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.63810699999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.77835200000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.88756699999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.96139699999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.99690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.99265899999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.94884400000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.86720200000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.75098699999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.60483299999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.43456600000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.246974</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.9535599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14987700000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.34331499999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52306600000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68196400000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.81367400000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91294500000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97582100000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99979300000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98390699999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.92879500000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.83665599999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.71116100000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.557315</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.38124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.18998699999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-8.8513099999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.20733599999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.39755600000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.57192600000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.723495</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.84621999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.93520999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.98691600000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.99927600000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.97179800000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.90557799999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.80325599999999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.66891</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.50789700000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.32663500000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.132352</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.7208100000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.26408900000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.45044099999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.61883500000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76255799999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.87588100000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.95428500000000005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.994645</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.99535099999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.956376</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.87927299999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.76711600000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.62437699999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.45674599999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.27090599999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4265399999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.125336</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.31994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.50178900000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.66363399999999995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.79902099999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.902555</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.97010600000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.99898200000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.98803200000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.93769199999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.84996899999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.72836100000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.57771499999999998</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.40403800000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.214253</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.59259E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.183036</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.37469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.551427</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.70616900000000005</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.83275900000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.92615000000000003</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.98261799999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.99991200000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.97734299999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.91581000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.81776599999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.68712099999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.52908299999999997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.34995100000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.15686900000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-4.2467999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.24011199999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.42818299999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.59918300000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.74629699999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.86365700000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.94658699999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.99177899999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.99743199999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.96331999999999995</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.89080400000000004</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.782775</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.64353800000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.47864600000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.29467199999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-9.8949700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.100717</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.29636899999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.48020499999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.64489700000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.78387899999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.89161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.96379499999999996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.99755700000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.99155000000000004</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.94601299999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.862761</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.74511300000000003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.59775999999999996</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.42657699999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.23838699999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.0693300000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF98-43CA-ACA0-6CBD02908CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.54159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3415900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1415900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94159300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74159299999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54159299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34159299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.141593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.8407300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.258407</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.45840700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.65840699999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.85840700000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0584100000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.25841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.45841</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.48319</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.2831900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0831900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.883185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.68318500000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.48318499999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28318500000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.3185300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.116815</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31681500000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51681500000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71681499999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.91681500000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1168100000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.31681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.51681</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4247799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.22478</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.02478</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82477800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62477800000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42477799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22477800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4778000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.17522199999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.375222</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.57522200000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.77522199999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.97522200000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1752199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.3752200000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.56637</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.3663700000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.1663699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.96637099999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.76637100000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.56637099999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.366371</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.16637099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3629399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.233629</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43362899999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.633629</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83362899999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.03363</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.23363</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.43363</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.50796</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.30796</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1079600000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90796299999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70796300000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50796300000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.30796299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.107963</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9.2036699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.29203699999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.492037</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.69203700000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.89203699999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0920399999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.2920400000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.49204</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.44956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.24956</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.04956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.84955599999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.64955600000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.44955600000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.249556</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.95559E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15044399999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.35044399999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.55044400000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.750444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95044399999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1504399999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3504400000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.55044</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3911500000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1911499999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99114899999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79114899999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.59114900000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.39114900000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.19114900000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-8.8514200000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.20885100000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.40885100000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.60885100000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.80885099999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.00885</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.20885</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.4088499999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.53274</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.33274</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.1327400000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.93274100000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.73274099999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.53274100000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.33274100000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.132741</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.7258799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.26725900000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.46725899999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.66725900000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.867259</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0672600000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2672600000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.46726</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4743299999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.27433</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.07433</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.87433399999999994</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.67433399999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.47433399999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.27433400000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.4333899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.125666</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.32566600000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.52566599999999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.72566600000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.92566599999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.1256699999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.3256699999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-1.5256700000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.4159299999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.21593</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.01593</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.81592699999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.615927</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.41592699999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.21592700000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.59265E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.18407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.384073</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.58407299999999995</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.78407300000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.98407299999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.18407</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.3840699999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.55752</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.3575200000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.1575200000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.95751900000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.75751900000000005</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.55751899999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.35751899999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.15751899999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-4.2480799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.242481</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.44248100000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.64248099999999997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.84248100000000004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.0424800000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.24248</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.44248</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.4991099999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.29911</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.09911</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.89911200000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.69911199999999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.499112</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.29911199999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-9.91118E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.10088800000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.30088799999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.500888</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.70088799999999996</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.90088800000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1008899999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.3008900000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.5008900000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.4407000000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.2406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.0407</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.84070400000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.64070400000000005</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.44070399999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.240704</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.0704499999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF98-43CA-ACA0-6CBD02908CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="134757328"/>
+        <c:axId val="134756912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134757328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134756912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134756912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134757328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -494,6 +3721,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1049,24 +4316,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1076,6 +4859,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1347,262 +5160,3412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.19866900000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>-0.2</v>
+      </c>
+      <c r="C2">
+        <v>-8</v>
+      </c>
+      <c r="D2">
+        <v>0.93203899999999995</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.38941799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>-0.4</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0.98545000000000005</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.56464199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>-0.6</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>0.99957399999999996</v>
+      </c>
+      <c r="E4">
+        <v>1.54159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.71735599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>-0.8</v>
+      </c>
+      <c r="C5">
+        <v>-16</v>
+      </c>
+      <c r="D5">
+        <v>0.97384800000000005</v>
+      </c>
+      <c r="E5">
+        <v>1.3415900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.84147099999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.1415900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.93203899999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="B7">
+        <v>-1.2</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0.80849599999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.94159300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.98545000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+      <c r="B8">
+        <v>-1.4</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.67546300000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.74159299999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.99957399999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+      <c r="B9">
+        <v>-1.6</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.51550099999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.54159299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.97384800000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+      <c r="B10">
+        <v>-1.8</v>
+      </c>
+      <c r="C10">
+        <v>-20</v>
+      </c>
+      <c r="D10">
+        <v>0.33498800000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.34159299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.90929700000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.14112</v>
+      </c>
+      <c r="E11">
+        <v>0.141593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.80849599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B12">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C12">
+        <v>-4</v>
+      </c>
+      <c r="D12">
+        <v>-5.8374099999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>-5.8407300000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.67546300000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.4</v>
+      </c>
+      <c r="B13">
+        <v>-2.4</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-0.25554100000000002</v>
+      </c>
+      <c r="E13">
+        <v>-0.258407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.51550099999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+      <c r="B14">
+        <v>-2.6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-0.44252000000000002</v>
+      </c>
+      <c r="E14">
+        <v>-0.45840700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.33498800000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.8</v>
+      </c>
+      <c r="B15">
+        <v>-2.8</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>-0.61185800000000001</v>
+      </c>
+      <c r="E15">
+        <v>-0.65840699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.14112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>-3</v>
+      </c>
+      <c r="C16">
+        <v>-14</v>
+      </c>
+      <c r="D16">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="E16">
+        <v>-0.85840700000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-5.8374099999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+      <c r="B17">
+        <v>-3.2</v>
+      </c>
+      <c r="C17">
+        <v>-21</v>
+      </c>
+      <c r="D17">
+        <v>-0.87157600000000002</v>
+      </c>
+      <c r="E17">
+        <v>-1.0584100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.25554100000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3.4</v>
+      </c>
+      <c r="B18">
+        <v>-3.4</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>-0.95160199999999995</v>
+      </c>
+      <c r="E18">
+        <v>-1.25841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-0.44252000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3.6</v>
+      </c>
+      <c r="B19">
+        <v>-3.6</v>
+      </c>
+      <c r="C19">
+        <v>-10</v>
+      </c>
+      <c r="D19">
+        <v>-0.99369099999999999</v>
+      </c>
+      <c r="E19">
+        <v>-1.45841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-0.61185800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="B20">
+        <v>-3.8</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>-0.99616499999999997</v>
+      </c>
+      <c r="E20">
+        <v>-1.48319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-0.75680199999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>-4</v>
+      </c>
+      <c r="C21">
+        <v>-10</v>
+      </c>
+      <c r="D21">
+        <v>-0.958924</v>
+      </c>
+      <c r="E21">
+        <v>-1.2831900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-0.87157600000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="B22">
+        <v>-4.2</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>-0.88345499999999999</v>
+      </c>
+      <c r="E22">
+        <v>-1.0831900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-0.95160199999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B23">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="C23">
+        <v>-21</v>
+      </c>
+      <c r="D23">
+        <v>-0.77276400000000001</v>
+      </c>
+      <c r="E23">
+        <v>-0.883185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-0.99369099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B24">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>-0.63126700000000002</v>
+      </c>
+      <c r="E24">
+        <v>-0.68318500000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-0.99616499999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="B25">
+        <v>-4.8</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>-0.46460200000000001</v>
+      </c>
+      <c r="E25">
+        <v>-0.48318499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-0.958924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>-5</v>
+      </c>
+      <c r="C26">
+        <v>-7</v>
+      </c>
+      <c r="D26">
+        <v>-0.27941500000000002</v>
+      </c>
+      <c r="E26">
+        <v>-0.28318500000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-0.88345499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5.2</v>
+      </c>
+      <c r="B27">
+        <v>-5.2</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>-8.3089399999999994E-2</v>
+      </c>
+      <c r="E27">
+        <v>-8.3185300000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-0.77276400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5.4</v>
+      </c>
+      <c r="B28">
+        <v>-5.4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.116549</v>
+      </c>
+      <c r="E28">
+        <v>0.116815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-0.63126700000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5.6</v>
+      </c>
+      <c r="B29">
+        <v>-5.6</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>0.31154100000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.31681500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-0.46460200000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5.8</v>
+      </c>
+      <c r="B30">
+        <v>-5.8</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>0.49411300000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.51681500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-0.27941500000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>-6</v>
+      </c>
+      <c r="C31">
+        <v>-15</v>
+      </c>
+      <c r="D31">
+        <v>0.65698699999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.71681499999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-8.3089399999999994E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="B32">
+        <v>-6.2</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>0.79366800000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.91681500000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.116549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+      <c r="B33">
+        <v>-6.4</v>
+      </c>
+      <c r="C33">
+        <v>-20</v>
+      </c>
+      <c r="D33">
+        <v>0.89870799999999995</v>
+      </c>
+      <c r="E33">
+        <v>1.1168100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.31154100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6.6</v>
+      </c>
+      <c r="B34">
+        <v>-6.6</v>
+      </c>
+      <c r="C34">
+        <v>-5</v>
+      </c>
+      <c r="D34">
+        <v>0.96792</v>
+      </c>
+      <c r="E34">
+        <v>1.31681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.49411300000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6.8</v>
+      </c>
+      <c r="B35">
+        <v>-6.8</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>0.99854299999999996</v>
+      </c>
+      <c r="E35">
+        <v>1.51681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.65698699999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>-7</v>
+      </c>
+      <c r="C36">
+        <v>-6</v>
+      </c>
+      <c r="D36">
+        <v>0.98935799999999996</v>
+      </c>
+      <c r="E36">
+        <v>1.4247799999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.79366800000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7.2</v>
+      </c>
+      <c r="B37">
+        <v>-7.2</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>0.94073099999999998</v>
+      </c>
+      <c r="E37">
+        <v>1.22478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.89870799999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7.4</v>
+      </c>
+      <c r="B38">
+        <v>-7.4</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>0.854599</v>
+      </c>
+      <c r="E38">
+        <v>1.02478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.96792</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7.6</v>
+      </c>
+      <c r="B39">
+        <v>-7.6</v>
+      </c>
+      <c r="C39">
+        <v>-23</v>
+      </c>
+      <c r="D39">
+        <v>0.73439699999999997</v>
+      </c>
+      <c r="E39">
+        <v>0.82477800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.99854299999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7.8</v>
+      </c>
+      <c r="B40">
+        <v>-7.8</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>0.58491700000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.62477800000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.98935799999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>-8</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>0.41211799999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.42477799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.94073099999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B42">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="C42">
+        <v>-23</v>
+      </c>
+      <c r="D42">
+        <v>0.22289</v>
+      </c>
+      <c r="E42">
+        <v>0.22477800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.854599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8.4</v>
+      </c>
+      <c r="B43">
+        <v>-8.4</v>
+      </c>
+      <c r="C43">
+        <v>-16</v>
+      </c>
+      <c r="D43">
+        <v>2.47754E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.4778000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.73439699999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8.6</v>
+      </c>
+      <c r="B44">
+        <v>-8.6</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>-0.17432700000000001</v>
+      </c>
+      <c r="E44">
+        <v>-0.17522199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.58491700000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B45">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>-0.366479</v>
+      </c>
+      <c r="E45">
+        <v>-0.375222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.41211799999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>-9</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>-0.54402099999999998</v>
+      </c>
+      <c r="E46">
+        <v>-0.57522200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.22289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B47">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>-0.69987500000000002</v>
+      </c>
+      <c r="E47">
+        <v>-0.77522199999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2.47754E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9.4</v>
+      </c>
+      <c r="B48">
+        <v>-9.4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>-0.82782599999999995</v>
+      </c>
+      <c r="E48">
+        <v>-0.97522200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-0.17432700000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9.6</v>
+      </c>
+      <c r="B49">
+        <v>-9.6</v>
+      </c>
+      <c r="C49">
+        <v>-8</v>
+      </c>
+      <c r="D49">
+        <v>-0.92277500000000001</v>
+      </c>
+      <c r="E49">
+        <v>-1.1752199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-0.366479</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B50">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>-0.98093600000000003</v>
+      </c>
+      <c r="E50">
+        <v>-1.3752200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>-10</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>-0.99999000000000005</v>
+      </c>
+      <c r="E51">
+        <v>-1.56637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B52">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C52">
+        <v>-11</v>
+      </c>
+      <c r="D52">
+        <v>-0.97917799999999999</v>
+      </c>
+      <c r="E52">
+        <v>-1.3663700000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10.4</v>
+      </c>
+      <c r="B53">
+        <v>-10.4</v>
+      </c>
+      <c r="C53">
+        <v>-22</v>
+      </c>
+      <c r="D53">
+        <v>-0.91932899999999995</v>
+      </c>
+      <c r="E53">
+        <v>-1.1663699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10.6</v>
+      </c>
+      <c r="B54">
+        <v>-10.6</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>-0.82282900000000003</v>
+      </c>
+      <c r="E54">
+        <v>-0.96637099999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10.8</v>
+      </c>
+      <c r="B55">
+        <v>-10.8</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>-0.69352499999999995</v>
+      </c>
+      <c r="E55">
+        <v>-0.76637100000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>-11</v>
+      </c>
+      <c r="C56">
+        <v>-22</v>
+      </c>
+      <c r="D56">
+        <v>-0.53657299999999997</v>
+      </c>
+      <c r="E56">
+        <v>-0.56637099999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11.2</v>
+      </c>
+      <c r="B57">
+        <v>-11.2</v>
+      </c>
+      <c r="C57">
+        <v>-18</v>
+      </c>
+      <c r="D57">
+        <v>-0.35822900000000002</v>
+      </c>
+      <c r="E57">
+        <v>-0.366371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11.4</v>
+      </c>
+      <c r="B58">
+        <v>-11.4</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>-0.165604</v>
+      </c>
+      <c r="E58">
+        <v>-0.16637099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11.6</v>
+      </c>
+      <c r="B59">
+        <v>-11.6</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>3.3623E-2</v>
+      </c>
+      <c r="E59">
+        <v>3.3629399999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>11.8</v>
+      </c>
+      <c r="B60">
+        <v>-11.8</v>
+      </c>
+      <c r="C60">
+        <v>-9</v>
+      </c>
+      <c r="D60">
+        <v>0.23150999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.233629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>-12</v>
+      </c>
+      <c r="C61">
+        <v>-15</v>
+      </c>
+      <c r="D61">
+        <v>0.42016700000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.43362899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>12.2</v>
+      </c>
+      <c r="B62">
+        <v>-12.2</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>0.59207399999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.633629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>12.4</v>
+      </c>
+      <c r="B63">
+        <v>-12.4</v>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>0.74037600000000003</v>
+      </c>
+      <c r="E63">
+        <v>0.83362899999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>12.6</v>
+      </c>
+      <c r="B64">
+        <v>-12.6</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>0.85916199999999998</v>
+      </c>
+      <c r="E64">
+        <v>1.03363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>12.8</v>
+      </c>
+      <c r="B65">
+        <v>-12.8</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>0.94369599999999998</v>
+      </c>
+      <c r="E65">
+        <v>1.23363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>-13</v>
+      </c>
+      <c r="C66">
+        <v>-9</v>
+      </c>
+      <c r="D66">
+        <v>0.99060700000000002</v>
+      </c>
+      <c r="E66">
+        <v>1.43363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>13.2</v>
+      </c>
+      <c r="B67">
+        <v>-13.2</v>
+      </c>
+      <c r="C67">
+        <v>-24</v>
+      </c>
+      <c r="D67">
+        <v>0.998027</v>
+      </c>
+      <c r="E67">
+        <v>1.50796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>13.4</v>
+      </c>
+      <c r="B68">
+        <v>-13.4</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0.96565800000000002</v>
+      </c>
+      <c r="E68">
+        <v>1.30796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>13.6</v>
+      </c>
+      <c r="B69">
+        <v>-13.6</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>0.894791</v>
+      </c>
+      <c r="E69">
+        <v>1.1079600000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>13.8</v>
+      </c>
+      <c r="B70">
+        <v>-13.8</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>0.78825199999999995</v>
+      </c>
+      <c r="E70">
+        <v>0.90796299999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>-14</v>
+      </c>
+      <c r="C71">
+        <v>-5</v>
+      </c>
+      <c r="D71">
+        <v>0.65028799999999998</v>
+      </c>
+      <c r="E71">
+        <v>0.70796300000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>14.2</v>
+      </c>
+      <c r="B72">
+        <v>-14.2</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>0.48639900000000003</v>
+      </c>
+      <c r="E72">
+        <v>0.50796300000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>14.4</v>
+      </c>
+      <c r="B73">
+        <v>-14.4</v>
+      </c>
+      <c r="C73">
+        <v>-10</v>
+      </c>
+      <c r="D73">
+        <v>0.303118</v>
+      </c>
+      <c r="E73">
+        <v>0.30796299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>14.6</v>
+      </c>
+      <c r="B74">
+        <v>-14.6</v>
+      </c>
+      <c r="C74">
+        <v>-16</v>
+      </c>
+      <c r="D74">
+        <v>0.107754</v>
+      </c>
+      <c r="E74">
+        <v>0.107963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>14.8</v>
+      </c>
+      <c r="B75">
+        <v>-14.8</v>
+      </c>
+      <c r="C75">
+        <v>-9</v>
+      </c>
+      <c r="D75">
+        <v>-9.19069E-2</v>
+      </c>
+      <c r="E75">
+        <v>-9.2036699999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>-15</v>
+      </c>
+      <c r="C76">
+        <v>-16</v>
+      </c>
+      <c r="D76">
+        <v>-0.28790300000000002</v>
+      </c>
+      <c r="E76">
+        <v>-0.29203699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>15.2</v>
+      </c>
+      <c r="B77">
+        <v>-15.2</v>
+      </c>
+      <c r="C77">
+        <v>-10</v>
+      </c>
+      <c r="D77">
+        <v>-0.47242200000000001</v>
+      </c>
+      <c r="E77">
+        <v>-0.492037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>15.4</v>
+      </c>
+      <c r="B78">
+        <v>-15.4</v>
+      </c>
+      <c r="C78">
+        <v>-20</v>
+      </c>
+      <c r="D78">
+        <v>-0.63810699999999998</v>
+      </c>
+      <c r="E78">
+        <v>-0.69203700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>15.6</v>
+      </c>
+      <c r="B79">
+        <v>-15.6</v>
+      </c>
+      <c r="C79">
+        <v>21</v>
+      </c>
+      <c r="D79">
+        <v>-0.77835200000000004</v>
+      </c>
+      <c r="E79">
+        <v>-0.89203699999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>15.8</v>
+      </c>
+      <c r="B80">
+        <v>-15.8</v>
+      </c>
+      <c r="C80">
+        <v>-7</v>
+      </c>
+      <c r="D80">
+        <v>-0.88756699999999999</v>
+      </c>
+      <c r="E80">
+        <v>-1.0920399999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>-16</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>-0.96139699999999995</v>
+      </c>
+      <c r="E81">
+        <v>-1.2920400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>16.2</v>
+      </c>
+      <c r="B82">
+        <v>-16.2</v>
+      </c>
+      <c r="C82">
+        <v>-11</v>
+      </c>
+      <c r="D82">
+        <v>-0.99690000000000001</v>
+      </c>
+      <c r="E82">
+        <v>-1.49204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B83">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>-0.99265899999999996</v>
+      </c>
+      <c r="E83">
+        <v>-1.44956</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B84">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>-0.94884400000000002</v>
+      </c>
+      <c r="E84">
+        <v>-1.24956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>16.8</v>
+      </c>
+      <c r="B85">
+        <v>-16.8</v>
+      </c>
+      <c r="C85">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>-0.86720200000000003</v>
+      </c>
+      <c r="E85">
+        <v>-1.04956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>-17</v>
+      </c>
+      <c r="C86">
+        <v>-15</v>
+      </c>
+      <c r="D86">
+        <v>-0.75098699999999996</v>
+      </c>
+      <c r="E86">
+        <v>-0.84955599999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>17.2</v>
+      </c>
+      <c r="B87">
+        <v>-17.2</v>
+      </c>
+      <c r="C87">
+        <v>-9</v>
+      </c>
+      <c r="D87">
+        <v>-0.60483299999999995</v>
+      </c>
+      <c r="E87">
+        <v>-0.64955600000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B88">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>-0.43456600000000001</v>
+      </c>
+      <c r="E88">
+        <v>-0.44955600000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B89">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="C89">
+        <v>-1</v>
+      </c>
+      <c r="D89">
+        <v>-0.246974</v>
+      </c>
+      <c r="E89">
+        <v>-0.249556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>17.8</v>
+      </c>
+      <c r="B90">
+        <v>-17.8</v>
+      </c>
+      <c r="C90">
+        <v>-4</v>
+      </c>
+      <c r="D90">
+        <v>-4.9535599999999999E-2</v>
+      </c>
+      <c r="E90">
+        <v>-4.95559E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>-18</v>
+      </c>
+      <c r="C91">
+        <v>-21</v>
+      </c>
+      <c r="D91">
+        <v>0.14987700000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.15044399999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>18.2</v>
+      </c>
+      <c r="B92">
+        <v>-18.2</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>0.34331499999999998</v>
+      </c>
+      <c r="E92">
+        <v>0.35044399999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B93">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="C93">
+        <v>-9</v>
+      </c>
+      <c r="D93">
+        <v>0.52306600000000003</v>
+      </c>
+      <c r="E93">
+        <v>0.55044400000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B94">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>0.68196400000000001</v>
+      </c>
+      <c r="E94">
+        <v>0.750444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>18.8</v>
+      </c>
+      <c r="B95">
+        <v>-18.8</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>0.81367400000000001</v>
+      </c>
+      <c r="E95">
+        <v>0.95044399999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96">
+        <v>-19</v>
+      </c>
+      <c r="C96">
+        <v>-24</v>
+      </c>
+      <c r="D96">
+        <v>0.91294500000000001</v>
+      </c>
+      <c r="E96">
+        <v>1.1504399999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>19.2</v>
+      </c>
+      <c r="B97">
+        <v>-19.2</v>
+      </c>
+      <c r="C97">
+        <v>-4</v>
+      </c>
+      <c r="D97">
+        <v>0.97582100000000005</v>
+      </c>
+      <c r="E97">
+        <v>1.3504400000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B98">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>0.99979300000000004</v>
+      </c>
+      <c r="E98">
+        <v>1.55044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B99">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="C99">
+        <v>-19</v>
+      </c>
+      <c r="D99">
+        <v>0.98390699999999998</v>
+      </c>
+      <c r="E99">
+        <v>1.3911500000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>19.8</v>
+      </c>
+      <c r="B100">
+        <v>-19.8</v>
+      </c>
+      <c r="C100">
+        <v>-23</v>
+      </c>
+      <c r="D100">
+        <v>0.92879500000000004</v>
+      </c>
+      <c r="E100">
+        <v>1.1911499999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="B101">
+        <v>-20</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>0.83665599999999996</v>
+      </c>
+      <c r="E101">
+        <v>0.99114899999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20.2</v>
+      </c>
+      <c r="B102">
+        <v>-20.2</v>
+      </c>
+      <c r="C102">
+        <v>-14</v>
+      </c>
+      <c r="D102">
+        <v>0.71116100000000004</v>
+      </c>
+      <c r="E102">
+        <v>0.79114899999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B103">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0.557315</v>
+      </c>
+      <c r="E103">
+        <v>0.59114900000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>20.6</v>
+      </c>
+      <c r="B104">
+        <v>-20.6</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="E104">
+        <v>0.39114900000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>20.8</v>
+      </c>
+      <c r="B105">
+        <v>-20.8</v>
+      </c>
+      <c r="C105">
+        <v>-4</v>
+      </c>
+      <c r="D105">
+        <v>0.18998699999999999</v>
+      </c>
+      <c r="E105">
+        <v>0.19114900000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>21</v>
+      </c>
+      <c r="B106">
+        <v>-21</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>-8.8513099999999994E-3</v>
+      </c>
+      <c r="E106">
+        <v>-8.8514200000000005E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>21.2</v>
+      </c>
+      <c r="B107">
+        <v>-21.2</v>
+      </c>
+      <c r="C107">
+        <v>-23</v>
+      </c>
+      <c r="D107">
+        <v>-0.20733599999999999</v>
+      </c>
+      <c r="E107">
+        <v>-0.20885100000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>21.4</v>
+      </c>
+      <c r="B108">
+        <v>-21.4</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>-0.39755600000000002</v>
+      </c>
+      <c r="E108">
+        <v>-0.40885100000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>21.6</v>
+      </c>
+      <c r="B109">
+        <v>-21.6</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>-0.57192600000000005</v>
+      </c>
+      <c r="E109">
+        <v>-0.60885100000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>21.8</v>
+      </c>
+      <c r="B110">
+        <v>-21.8</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>-0.723495</v>
+      </c>
+      <c r="E110">
+        <v>-0.80885099999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>-22</v>
+      </c>
+      <c r="C111">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>-0.84621999999999997</v>
+      </c>
+      <c r="E111">
+        <v>-1.00885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>22.2</v>
+      </c>
+      <c r="B112">
+        <v>-22.2</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>-0.93520999999999999</v>
+      </c>
+      <c r="E112">
+        <v>-1.20885</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>22.4</v>
+      </c>
+      <c r="B113">
+        <v>-22.4</v>
+      </c>
+      <c r="C113">
+        <v>-17</v>
+      </c>
+      <c r="D113">
+        <v>-0.98691600000000002</v>
+      </c>
+      <c r="E113">
+        <v>-1.4088499999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>22.6</v>
+      </c>
+      <c r="B114">
+        <v>-22.6</v>
+      </c>
+      <c r="C114">
+        <v>-11</v>
+      </c>
+      <c r="D114">
+        <v>-0.99927600000000005</v>
+      </c>
+      <c r="E114">
+        <v>-1.53274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>22.8</v>
+      </c>
+      <c r="B115">
+        <v>-22.8</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>-0.97179800000000005</v>
+      </c>
+      <c r="E115">
+        <v>-1.33274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116">
+        <v>-23</v>
+      </c>
+      <c r="C116">
+        <v>-1</v>
+      </c>
+      <c r="D116">
+        <v>-0.90557799999999999</v>
+      </c>
+      <c r="E116">
+        <v>-1.1327400000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>23.2</v>
+      </c>
+      <c r="B117">
+        <v>-23.2</v>
+      </c>
+      <c r="C117">
+        <v>-2</v>
+      </c>
+      <c r="D117">
+        <v>-0.80325599999999997</v>
+      </c>
+      <c r="E117">
+        <v>-0.93274100000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>23.4</v>
+      </c>
+      <c r="B118">
+        <v>-23.4</v>
+      </c>
+      <c r="C118">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>-0.66891</v>
+      </c>
+      <c r="E118">
+        <v>-0.73274099999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>23.6</v>
+      </c>
+      <c r="B119">
+        <v>-23.6</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119">
+        <v>-0.50789700000000004</v>
+      </c>
+      <c r="E119">
+        <v>-0.53274100000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>23.8</v>
+      </c>
+      <c r="B120">
+        <v>-23.8</v>
+      </c>
+      <c r="C120">
+        <v>-18</v>
+      </c>
+      <c r="D120">
+        <v>-0.32663500000000001</v>
+      </c>
+      <c r="E120">
+        <v>-0.33274100000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>-24</v>
+      </c>
+      <c r="C121">
+        <v>-18</v>
+      </c>
+      <c r="D121">
+        <v>-0.132352</v>
+      </c>
+      <c r="E121">
+        <v>-0.132741</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>24.2</v>
+      </c>
+      <c r="B122">
+        <v>-24.2</v>
+      </c>
+      <c r="C122">
+        <v>-19</v>
+      </c>
+      <c r="D122">
+        <v>6.7208100000000007E-2</v>
+      </c>
+      <c r="E122">
+        <v>6.7258799999999994E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>24.4</v>
+      </c>
+      <c r="B123">
+        <v>-24.4</v>
+      </c>
+      <c r="C123">
+        <v>-22</v>
+      </c>
+      <c r="D123">
+        <v>0.26408900000000002</v>
+      </c>
+      <c r="E123">
+        <v>0.26725900000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>24.6</v>
+      </c>
+      <c r="B124">
+        <v>-24.6</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>0.45044099999999998</v>
+      </c>
+      <c r="E124">
+        <v>0.46725899999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>24.8</v>
+      </c>
+      <c r="B125">
+        <v>-24.8</v>
+      </c>
+      <c r="C125">
+        <v>-14</v>
+      </c>
+      <c r="D125">
+        <v>0.61883500000000002</v>
+      </c>
+      <c r="E125">
+        <v>0.66725900000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126">
+        <v>-25</v>
+      </c>
+      <c r="C126">
+        <v>-6</v>
+      </c>
+      <c r="D126">
+        <v>0.76255799999999996</v>
+      </c>
+      <c r="E126">
+        <v>0.867259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>25.2</v>
+      </c>
+      <c r="B127">
+        <v>-25.2</v>
+      </c>
+      <c r="C127">
+        <v>-9</v>
+      </c>
+      <c r="D127">
+        <v>0.87588100000000002</v>
+      </c>
+      <c r="E127">
+        <v>1.0672600000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>25.4</v>
+      </c>
+      <c r="B128">
+        <v>-25.4</v>
+      </c>
+      <c r="C128">
+        <v>-16</v>
+      </c>
+      <c r="D128">
+        <v>0.95428500000000005</v>
+      </c>
+      <c r="E128">
+        <v>1.2672600000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>25.6</v>
+      </c>
+      <c r="B129">
+        <v>-25.6</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>0.994645</v>
+      </c>
+      <c r="E129">
+        <v>1.46726</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>25.8</v>
+      </c>
+      <c r="B130">
+        <v>-25.8</v>
+      </c>
+      <c r="C130">
+        <v>-15</v>
+      </c>
+      <c r="D130">
+        <v>0.99535099999999999</v>
+      </c>
+      <c r="E130">
+        <v>1.4743299999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131">
+        <v>-26</v>
+      </c>
+      <c r="C131">
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>0.956376</v>
+      </c>
+      <c r="E131">
+        <v>1.27433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>26.2</v>
+      </c>
+      <c r="B132">
+        <v>-26.2</v>
+      </c>
+      <c r="C132">
+        <v>-8</v>
+      </c>
+      <c r="D132">
+        <v>0.87927299999999997</v>
+      </c>
+      <c r="E132">
+        <v>1.07433</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>26.4</v>
+      </c>
+      <c r="B133">
+        <v>-26.4</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+      <c r="D133">
+        <v>0.76711600000000002</v>
+      </c>
+      <c r="E133">
+        <v>0.87433399999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>26.6</v>
+      </c>
+      <c r="B134">
+        <v>-26.6</v>
+      </c>
+      <c r="C134">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>0.62437699999999996</v>
+      </c>
+      <c r="E134">
+        <v>0.67433399999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>26.8</v>
+      </c>
+      <c r="B135">
+        <v>-26.8</v>
+      </c>
+      <c r="C135">
+        <v>19</v>
+      </c>
+      <c r="D135">
+        <v>0.45674599999999999</v>
+      </c>
+      <c r="E135">
+        <v>0.47433399999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136">
+        <v>-27</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <v>0.27090599999999998</v>
+      </c>
+      <c r="E136">
+        <v>0.27433400000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>27.2</v>
+      </c>
+      <c r="B137">
+        <v>-27.2</v>
+      </c>
+      <c r="C137">
+        <v>-13</v>
+      </c>
+      <c r="D137">
+        <v>7.4265399999999995E-2</v>
+      </c>
+      <c r="E137">
+        <v>7.4333899999999994E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>27.4</v>
+      </c>
+      <c r="B138">
+        <v>-27.4</v>
+      </c>
+      <c r="C138">
+        <v>-10</v>
+      </c>
+      <c r="D138">
+        <v>-0.125336</v>
+      </c>
+      <c r="E138">
+        <v>-0.125666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>27.6</v>
+      </c>
+      <c r="B139">
+        <v>-27.6</v>
+      </c>
+      <c r="C139">
+        <v>-3</v>
+      </c>
+      <c r="D139">
+        <v>-0.31994</v>
+      </c>
+      <c r="E139">
+        <v>-0.32566600000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>27.8</v>
+      </c>
+      <c r="B140">
+        <v>-27.8</v>
+      </c>
+      <c r="C140">
+        <v>-10</v>
+      </c>
+      <c r="D140">
+        <v>-0.50178900000000004</v>
+      </c>
+      <c r="E140">
+        <v>-0.52566599999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141">
+        <v>-28</v>
+      </c>
+      <c r="C141">
+        <v>-14</v>
+      </c>
+      <c r="D141">
+        <v>-0.66363399999999995</v>
+      </c>
+      <c r="E141">
+        <v>-0.72566600000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>28.2</v>
+      </c>
+      <c r="B142">
+        <v>-28.2</v>
+      </c>
+      <c r="C142">
+        <v>-1</v>
+      </c>
+      <c r="D142">
+        <v>-0.79902099999999998</v>
+      </c>
+      <c r="E142">
+        <v>-0.92566599999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>28.4</v>
+      </c>
+      <c r="B143">
+        <v>-28.4</v>
+      </c>
+      <c r="C143">
+        <v>-9</v>
+      </c>
+      <c r="D143">
+        <v>-0.902555</v>
+      </c>
+      <c r="E143">
+        <v>-1.1256699999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>28.6</v>
+      </c>
+      <c r="B144">
+        <v>-28.6</v>
+      </c>
+      <c r="C144">
+        <v>-25</v>
+      </c>
+      <c r="D144">
+        <v>-0.97010600000000002</v>
+      </c>
+      <c r="E144">
+        <v>-1.3256699999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>28.8</v>
+      </c>
+      <c r="B145">
+        <v>-28.8</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>-0.99898200000000004</v>
+      </c>
+      <c r="E145">
+        <v>-1.5256700000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>29</v>
+      </c>
+      <c r="B146">
+        <v>-29</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>-0.98803200000000002</v>
+      </c>
+      <c r="E146">
+        <v>-1.4159299999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>29.2</v>
+      </c>
+      <c r="B147">
+        <v>-29.2</v>
+      </c>
+      <c r="C147">
+        <v>-2</v>
+      </c>
+      <c r="D147">
+        <v>-0.93769199999999997</v>
+      </c>
+      <c r="E147">
+        <v>-1.21593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>29.4</v>
+      </c>
+      <c r="B148">
+        <v>-29.4</v>
+      </c>
+      <c r="C148">
+        <v>-18</v>
+      </c>
+      <c r="D148">
+        <v>-0.84996899999999997</v>
+      </c>
+      <c r="E148">
+        <v>-1.01593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>29.6</v>
+      </c>
+      <c r="B149">
+        <v>-29.6</v>
+      </c>
+      <c r="C149">
+        <v>-17</v>
+      </c>
+      <c r="D149">
+        <v>-0.72836100000000004</v>
+      </c>
+      <c r="E149">
+        <v>-0.81592699999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>29.8</v>
+      </c>
+      <c r="B150">
+        <v>-29.8</v>
+      </c>
+      <c r="C150">
+        <v>-21</v>
+      </c>
+      <c r="D150">
+        <v>-0.57771499999999998</v>
+      </c>
+      <c r="E150">
+        <v>-0.615927</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151">
+        <v>-30</v>
+      </c>
+      <c r="C151">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>-0.40403800000000001</v>
+      </c>
+      <c r="E151">
+        <v>-0.41592699999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>30.2</v>
+      </c>
+      <c r="B152">
+        <v>-30.2</v>
+      </c>
+      <c r="C152">
+        <v>-13</v>
+      </c>
+      <c r="D152">
+        <v>-0.214253</v>
+      </c>
+      <c r="E152">
+        <v>-0.21592700000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>30.4</v>
+      </c>
+      <c r="B153">
+        <v>-30.4</v>
+      </c>
+      <c r="C153">
+        <v>-21</v>
+      </c>
+      <c r="D153">
+        <v>-1.59259E-2</v>
+      </c>
+      <c r="E153">
+        <v>-1.59265E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>30.6</v>
+      </c>
+      <c r="B154">
+        <v>-30.6</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+      <c r="D154">
+        <v>0.183036</v>
+      </c>
+      <c r="E154">
+        <v>0.18407299999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>30.8</v>
+      </c>
+      <c r="B155">
+        <v>-30.8</v>
+      </c>
+      <c r="C155">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="E155">
+        <v>0.384073</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>-31</v>
+      </c>
+      <c r="C156">
+        <v>-2</v>
+      </c>
+      <c r="D156">
+        <v>0.551427</v>
+      </c>
+      <c r="E156">
+        <v>0.58407299999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>31.2</v>
+      </c>
+      <c r="B157">
+        <v>-31.2</v>
+      </c>
+      <c r="C157">
+        <v>-1</v>
+      </c>
+      <c r="D157">
+        <v>0.70616900000000005</v>
+      </c>
+      <c r="E157">
+        <v>0.78407300000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>31.4</v>
+      </c>
+      <c r="B158">
+        <v>-31.4</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>0.83275900000000003</v>
+      </c>
+      <c r="E158">
+        <v>0.98407299999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>31.6</v>
+      </c>
+      <c r="B159">
+        <v>-31.6</v>
+      </c>
+      <c r="C159">
+        <v>-15</v>
+      </c>
+      <c r="D159">
+        <v>0.92615000000000003</v>
+      </c>
+      <c r="E159">
+        <v>1.18407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>31.8</v>
+      </c>
+      <c r="B160">
+        <v>-31.8</v>
+      </c>
+      <c r="C160">
+        <v>-4</v>
+      </c>
+      <c r="D160">
+        <v>0.98261799999999999</v>
+      </c>
+      <c r="E160">
+        <v>1.3840699999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>32</v>
+      </c>
+      <c r="B161">
+        <v>-32</v>
+      </c>
+      <c r="C161">
+        <v>-5</v>
+      </c>
+      <c r="D161">
+        <v>0.99991200000000002</v>
+      </c>
+      <c r="E161">
+        <v>1.55752</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B162">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0.97734299999999996</v>
+      </c>
+      <c r="E162">
+        <v>1.3575200000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>32.4</v>
+      </c>
+      <c r="B163">
+        <v>-32.4</v>
+      </c>
+      <c r="C163">
+        <v>21</v>
+      </c>
+      <c r="D163">
+        <v>0.91581000000000001</v>
+      </c>
+      <c r="E163">
+        <v>1.1575200000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>32.6</v>
+      </c>
+      <c r="B164">
+        <v>-32.6</v>
+      </c>
+      <c r="C164">
+        <v>-12</v>
+      </c>
+      <c r="D164">
+        <v>0.81776599999999999</v>
+      </c>
+      <c r="E164">
+        <v>0.95751900000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B165">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="C165">
+        <v>-6</v>
+      </c>
+      <c r="D165">
+        <v>0.68712099999999998</v>
+      </c>
+      <c r="E165">
+        <v>0.75751900000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>33</v>
+      </c>
+      <c r="B166">
+        <v>-33</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>0.52908299999999997</v>
+      </c>
+      <c r="E166">
+        <v>0.55751899999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B167">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0.34995100000000001</v>
+      </c>
+      <c r="E167">
+        <v>0.35751899999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>33.4</v>
+      </c>
+      <c r="B168">
+        <v>-33.4</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0.15686900000000001</v>
+      </c>
+      <c r="E168">
+        <v>0.15751899999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>33.6</v>
+      </c>
+      <c r="B169">
+        <v>-33.6</v>
+      </c>
+      <c r="C169">
+        <v>16</v>
+      </c>
+      <c r="D169">
+        <v>-4.2467999999999999E-2</v>
+      </c>
+      <c r="E169">
+        <v>-4.2480799999999999E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B170">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>-0.24011199999999999</v>
+      </c>
+      <c r="E170">
+        <v>-0.242481</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>34</v>
+      </c>
+      <c r="B171">
+        <v>-34</v>
+      </c>
+      <c r="C171">
+        <v>-23</v>
+      </c>
+      <c r="D171">
+        <v>-0.42818299999999998</v>
+      </c>
+      <c r="E171">
+        <v>-0.44248100000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="B172">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="C172">
+        <v>-8</v>
+      </c>
+      <c r="D172">
+        <v>-0.59918300000000002</v>
+      </c>
+      <c r="E172">
+        <v>-0.64248099999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>34.4</v>
+      </c>
+      <c r="B173">
+        <v>-34.4</v>
+      </c>
+      <c r="C173">
+        <v>-24</v>
+      </c>
+      <c r="D173">
+        <v>-0.74629699999999999</v>
+      </c>
+      <c r="E173">
+        <v>-0.84248100000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>34.6</v>
+      </c>
+      <c r="B174">
+        <v>-34.6</v>
+      </c>
+      <c r="C174">
+        <v>-10</v>
+      </c>
+      <c r="D174">
+        <v>-0.86365700000000001</v>
+      </c>
+      <c r="E174">
+        <v>-1.0424800000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="B175">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>-0.94658699999999996</v>
+      </c>
+      <c r="E175">
+        <v>-1.24248</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>35</v>
+      </c>
+      <c r="B176">
+        <v>-35</v>
+      </c>
+      <c r="C176">
+        <v>23</v>
+      </c>
+      <c r="D176">
+        <v>-0.99177899999999997</v>
+      </c>
+      <c r="E176">
+        <v>-1.44248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="B177">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="C177">
+        <v>-10</v>
+      </c>
+      <c r="D177">
+        <v>-0.99743199999999999</v>
+      </c>
+      <c r="E177">
+        <v>-1.4991099999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>35.4</v>
+      </c>
+      <c r="B178">
+        <v>-35.4</v>
+      </c>
+      <c r="C178">
+        <v>-18</v>
+      </c>
+      <c r="D178">
+        <v>-0.96331999999999995</v>
+      </c>
+      <c r="E178">
+        <v>-1.29911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>35.6</v>
+      </c>
+      <c r="B179">
+        <v>-35.6</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>-0.89080400000000004</v>
+      </c>
+      <c r="E179">
+        <v>-1.09911</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="B180">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="C180">
+        <v>-1</v>
+      </c>
+      <c r="D180">
+        <v>-0.782775</v>
+      </c>
+      <c r="E180">
+        <v>-0.89911200000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>36</v>
+      </c>
+      <c r="B181">
+        <v>-36</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>-0.64353800000000005</v>
+      </c>
+      <c r="E181">
+        <v>-0.69911199999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B182">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="C182">
+        <v>-25</v>
+      </c>
+      <c r="D182">
+        <v>-0.47864600000000002</v>
+      </c>
+      <c r="E182">
+        <v>-0.499112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>36.4</v>
+      </c>
+      <c r="B183">
+        <v>-36.4</v>
+      </c>
+      <c r="C183">
+        <v>-11</v>
+      </c>
+      <c r="D183">
+        <v>-0.29467199999999999</v>
+      </c>
+      <c r="E183">
+        <v>-0.29911199999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>36.6</v>
+      </c>
+      <c r="B184">
+        <v>-36.6</v>
+      </c>
+      <c r="C184">
+        <v>-18</v>
+      </c>
+      <c r="D184">
+        <v>-9.8949700000000002E-2</v>
+      </c>
+      <c r="E184">
+        <v>-9.91118E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B185">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="C185">
+        <v>-24</v>
+      </c>
+      <c r="D185">
+        <v>0.100717</v>
+      </c>
+      <c r="E185">
+        <v>0.10088800000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>37</v>
+      </c>
+      <c r="B186">
+        <v>-37</v>
+      </c>
+      <c r="C186">
+        <v>-23</v>
+      </c>
+      <c r="D186">
+        <v>0.29636899999999999</v>
+      </c>
+      <c r="E186">
+        <v>0.30088799999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B187">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="C187">
+        <v>14</v>
+      </c>
+      <c r="D187">
+        <v>0.48020499999999999</v>
+      </c>
+      <c r="E187">
+        <v>0.500888</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>37.4</v>
+      </c>
+      <c r="B188">
+        <v>-37.4</v>
+      </c>
+      <c r="C188">
+        <v>-7</v>
+      </c>
+      <c r="D188">
+        <v>0.64489700000000005</v>
+      </c>
+      <c r="E188">
+        <v>0.70088799999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>37.6</v>
+      </c>
+      <c r="B189">
+        <v>-37.6</v>
+      </c>
+      <c r="C189">
+        <v>18</v>
+      </c>
+      <c r="D189">
+        <v>0.78387899999999999</v>
+      </c>
+      <c r="E189">
+        <v>0.90088800000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B190">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0.89161000000000001</v>
+      </c>
+      <c r="E190">
+        <v>1.1008899999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>38</v>
+      </c>
+      <c r="B191">
+        <v>-38</v>
+      </c>
+      <c r="C191">
+        <v>18</v>
+      </c>
+      <c r="D191">
+        <v>0.96379499999999996</v>
+      </c>
+      <c r="E191">
+        <v>1.3008900000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B192">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="C192">
+        <v>-23</v>
+      </c>
+      <c r="D192">
+        <v>0.99755700000000003</v>
+      </c>
+      <c r="E192">
+        <v>1.5008900000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>38.4</v>
+      </c>
+      <c r="B193">
+        <v>-38.4</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193">
+        <v>0.99155000000000004</v>
+      </c>
+      <c r="E193">
+        <v>1.4407000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>38.6</v>
+      </c>
+      <c r="B194">
+        <v>-38.6</v>
+      </c>
+      <c r="C194">
+        <v>16</v>
+      </c>
+      <c r="D194">
+        <v>0.94601299999999999</v>
+      </c>
+      <c r="E194">
+        <v>1.2406999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B195">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="C195">
+        <v>-6</v>
+      </c>
+      <c r="D195">
+        <v>0.862761</v>
+      </c>
+      <c r="E195">
+        <v>1.0407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>39</v>
+      </c>
+      <c r="B196">
+        <v>-39</v>
+      </c>
+      <c r="C196">
+        <v>-25</v>
+      </c>
+      <c r="D196">
+        <v>0.74511300000000003</v>
+      </c>
+      <c r="E196">
+        <v>0.84070400000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B197">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>0.59775999999999996</v>
+      </c>
+      <c r="E197">
+        <v>0.64070400000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>39.4</v>
+      </c>
+      <c r="B198">
+        <v>-39.4</v>
+      </c>
+      <c r="C198">
+        <v>-25</v>
+      </c>
+      <c r="D198">
+        <v>0.42657699999999998</v>
+      </c>
+      <c r="E198">
+        <v>0.44070399999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>39.6</v>
+      </c>
+      <c r="B199">
+        <v>-39.6</v>
+      </c>
+      <c r="C199">
+        <v>-6</v>
+      </c>
+      <c r="D199">
+        <v>0.23838699999999999</v>
+      </c>
+      <c r="E199">
+        <v>0.240704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="B200">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="C200">
+        <v>-17</v>
+      </c>
+      <c r="D200">
+        <v>4.0693300000000002E-2</v>
+      </c>
+      <c r="E200">
+        <v>4.0704499999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -5163,7 +5163,7 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauzh\source\repos\LW1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +18,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Возрастание</t>
+  </si>
+  <si>
+    <t>Убывание</t>
+  </si>
+  <si>
+    <t>Случайная</t>
+  </si>
+  <si>
+    <t>Синусоидальная</t>
+  </si>
+  <si>
+    <t>Пилообразная</t>
+  </si>
+  <si>
+    <t>Ступенчатая</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -42,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,12 +68,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -74,7 +184,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -87,38 +197,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -127,6 +206,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Возрастание</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -141,7 +231,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$200</c:f>
+              <c:f>Лист1!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -749,7 +839,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF3E-4687-A302-8E0D8D92550E}"/>
             </c:ext>
@@ -758,6 +848,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Убывание</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -772,7 +873,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$200</c:f>
+              <c:f>Лист1!$B$2:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -1380,7 +1481,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF3E-4687-A302-8E0D8D92550E}"/>
             </c:ext>
@@ -1389,6 +1490,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Случайная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1403,7 +1515,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$1:$C$200</c:f>
+              <c:f>Лист1!$C$2:$C$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -2011,7 +2123,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BF3E-4687-A302-8E0D8D92550E}"/>
             </c:ext>
@@ -2025,12 +2137,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2144976144"/>
-        <c:axId val="2144975728"/>
+        <c:axId val="158930432"/>
+        <c:axId val="209419008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144976144"/>
+        <c:axId val="158930432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,10 +2182,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144975728"/>
+        <c:crossAx val="209419008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2080,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144975728"/>
+        <c:axId val="209419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,10 +2241,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144976144"/>
+        <c:crossAx val="158930432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,7 +2284,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2201,7 +2314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2213,7 +2326,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2226,38 +2339,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2266,6 +2348,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Синусоидальная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2280,7 +2373,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$1:$D$200</c:f>
+              <c:f>Лист1!$D$2:$D$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -2888,7 +2981,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF98-43CA-ACA0-6CBD02908CF5}"/>
             </c:ext>
@@ -2897,6 +2990,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Пилообразная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2911,7 +3015,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$1:$E$200</c:f>
+              <c:f>Лист1!$E$2:$E$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -3519,7 +3623,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF98-43CA-ACA0-6CBD02908CF5}"/>
             </c:ext>
@@ -3533,12 +3637,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134757328"/>
-        <c:axId val="134756912"/>
+        <c:axId val="158931968"/>
+        <c:axId val="213672512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134757328"/>
+        <c:axId val="158931968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,10 +3682,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134756912"/>
+        <c:crossAx val="213672512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3588,7 +3693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134756912"/>
+        <c:axId val="213672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,10 +3741,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134757328"/>
+        <c:crossAx val="158931968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3679,7 +3784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3709,9 +3814,721 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ступенчатая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>9.6133999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.119382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5072999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7459999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9644000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6860999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3441000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5316999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0945999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7018000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4732999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0252E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3570999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9640000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1994999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2305000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7069999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7202999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3969999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38583400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40775499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38248100000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37284499999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41513800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39201399999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.39337699999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35859799999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40154800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35947400000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.343472</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38812799999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33924500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41061700000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37745400000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.330868</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40808800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38592199999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63190299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66660200000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.65624199999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68610899999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70522300000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68153300000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69731299999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63386200000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65346199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63910199999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64726600000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65732699999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68903099999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.67664100000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69553500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.67905300000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69679899999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69696899999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.70635700000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63314800000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.018907</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93521600000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.94463699999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93900899999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96984599999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.994865</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.94406599999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.018195</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0021</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.012084</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.93034300000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97598200000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.017641</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.94243100000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.017317</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.93424600000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.015649</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99899899999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.96882400000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97712200000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2517210000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.306019</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2341059999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.236073</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.288894</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3070409999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2395389999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2359439999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2958019999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.281711</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.284524</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2384869999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2822750000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2902340000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.234364</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2850159999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.267684</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.249573</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2779290000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3046709999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.582371</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.600441</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.542907</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5899080000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.557428</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.549166</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5464640000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.545749</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5331939999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6034870000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.554138</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5643769999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.581753</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5363059999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.6047610000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6116090000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.603721</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5765450000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.534227</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.556832</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.8647069999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.8310569999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8959280000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8729659999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.91168</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.9167730000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.850649</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.848004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.8545910000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.897016</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9037729999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.9146909999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.8835980000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.9111910000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.892539</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.8399129999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.8471089999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.8617840000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.831272</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.830371</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1610870000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.147818</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.1372810000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.1660550000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.1447880000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.158766</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.145321</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.148142</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.1533799999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.1680519999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.1333839999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.1328399999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.1826430000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.1901410000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.1876769999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.1477490000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.1461260000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.1803080000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.1395499999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.212307</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.440083</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.4511470000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.472216</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.4488699999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.4664239999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.5048879999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.450059</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.4660359999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.4490919999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.4355669999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.4483830000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.4806870000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.4341089999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.4901330000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.5063460000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.510389</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.458628</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.5125130000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.460947</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.4627020000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.8193049999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.799785</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.7948650000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.7829120000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.7852899999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.8144019999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.7659509999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.7568160000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.7761879999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.7616360000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.751188</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.7600570000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.7702360000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.7662399999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.782953</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.78064</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.7730619999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.767407</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.7703570000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.7861199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="158929920"/>
+        <c:axId val="213675968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158929920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213675968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213675968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158929920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4837,15 +5654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>41323</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>53634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>24178</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4867,15 +5684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>35168</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>311393</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4889,6 +5706,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102577</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>388326</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5152,7 +5999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5160,3416 +6007,4044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>14</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="2">
         <v>0.84147099999999997</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F2" s="2">
+        <v>9.6133999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>0.2</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="4">
         <v>-8</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="4">
         <v>0.93203899999999995</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F3" s="4">
+        <v>0.119382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>0.4</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="4">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="4">
         <v>0.98545000000000005</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="F4" s="4">
+        <v>8.5072999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.6</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="4">
         <v>-0.6</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="4">
         <v>-5</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="4">
         <v>0.99957399999999996</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="4">
         <v>1.54159</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F5" s="4">
+        <v>8.7459999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.8</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="4">
         <v>-16</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="4">
         <v>0.97384800000000005</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="4">
         <v>1.3415900000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="F6" s="4">
+        <v>4.9644000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4">
         <v>-1</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="4">
         <v>-8</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="4">
         <v>0.90929700000000002</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="4">
         <v>1.1415900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F7" s="4">
+        <v>3.6860999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4">
         <v>-1.2</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="4">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="4">
         <v>0.80849599999999999</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="4">
         <v>0.94159300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F8" s="4">
+        <v>7.3441000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1.4</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4">
         <v>-1.4</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="4">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="4">
         <v>0.67546300000000004</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="4">
         <v>0.74159299999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F9" s="4">
+        <v>7.5316999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1.6</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="4">
         <v>-1.6</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="4">
         <v>0.51550099999999999</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="4">
         <v>0.54159299999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F10" s="4">
+        <v>9.0945999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1.8</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="4">
         <v>-1.8</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="4">
         <v>-20</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="4">
         <v>0.33498800000000001</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="4">
         <v>0.34159299999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F11" s="4">
+        <v>3.7018000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="4">
         <v>-2</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="4">
         <v>0.14112</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="4">
         <v>0.141593</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F12" s="4">
+        <v>9.4732999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="4">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="4">
         <v>-4</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="4">
         <v>-5.8374099999999998E-2</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="4">
         <v>-5.8407300000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F13" s="4">
+        <v>0.114389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2.4</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="4">
         <v>-2.4</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="4">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="4">
         <v>-0.25554100000000002</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="4">
         <v>-0.258407</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F14" s="4">
+        <v>6.0252E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2.6</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="4">
         <v>-2.6</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="4">
         <v>-0.44252000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="4">
         <v>-0.45840700000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="F15" s="4">
+        <v>3.3570999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2.8</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="4">
         <v>-2.8</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="4">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="4">
         <v>-0.61185800000000001</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="4">
         <v>-0.65840699999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="F16" s="4">
+        <v>7.9640000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="4">
         <v>-3</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="4">
         <v>-14</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="4">
         <v>-0.75680199999999997</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="4">
         <v>-0.85840700000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="F17" s="4">
+        <v>9.1994999999999993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>3.2</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="4">
         <v>-3.2</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="4">
         <v>-21</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="4">
         <v>-0.87157600000000002</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="4">
         <v>-1.0584100000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="F18" s="4">
+        <v>4.2305000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>3.4</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="4">
         <v>-3.4</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="4">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="4">
         <v>-0.95160199999999995</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="4">
         <v>-1.25841</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="F19" s="4">
+        <v>3.7069999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>3.6</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="4">
         <v>-3.6</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="4">
         <v>-10</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="4">
         <v>-0.99369099999999999</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="4">
         <v>-1.45841</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="F20" s="4">
+        <v>5.7202999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>3.8</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="4">
         <v>-3.8</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="4">
         <v>-0.99616499999999997</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="4">
         <v>-1.48319</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="F21" s="4">
+        <v>5.3969999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="4">
         <v>-4</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="4">
         <v>-10</v>
       </c>
-      <c r="D21">
+      <c r="D22" s="4">
         <v>-0.958924</v>
       </c>
-      <c r="E21">
+      <c r="E22" s="4">
         <v>-1.2831900000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="F22" s="4">
+        <v>0.38583400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>4.2</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="4">
         <v>-4.2</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="4">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D23" s="4">
         <v>-0.88345499999999999</v>
       </c>
-      <c r="E22">
+      <c r="E23" s="4">
         <v>-1.0831900000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="F23" s="4">
+        <v>0.40775499999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="4">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="4">
         <v>-21</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="4">
         <v>-0.77276400000000001</v>
       </c>
-      <c r="E23">
+      <c r="E24" s="4">
         <v>-0.883185</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="F24" s="4">
+        <v>0.38248100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="4">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="4">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D25" s="4">
         <v>-0.63126700000000002</v>
       </c>
-      <c r="E24">
+      <c r="E25" s="4">
         <v>-0.68318500000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="F25" s="4">
+        <v>0.37284499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>4.8</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="4">
         <v>-4.8</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="4">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="4">
         <v>-0.46460200000000001</v>
       </c>
-      <c r="E25">
+      <c r="E26" s="4">
         <v>-0.48318499999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="F26" s="4">
+        <v>0.41513800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="4">
         <v>-5</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="4">
         <v>-7</v>
       </c>
-      <c r="D26">
+      <c r="D27" s="4">
         <v>-0.27941500000000002</v>
       </c>
-      <c r="E26">
+      <c r="E27" s="4">
         <v>-0.28318500000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="F27" s="4">
+        <v>0.39201399999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>5.2</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="4">
         <v>-5.2</v>
       </c>
-      <c r="C27">
+      <c r="C28" s="4">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D28" s="4">
         <v>-8.3089399999999994E-2</v>
       </c>
-      <c r="E27">
+      <c r="E28" s="4">
         <v>-8.3185300000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="F28" s="4">
+        <v>0.39337699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>5.4</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="4">
         <v>-5.4</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D29" s="4">
         <v>0.116549</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="4">
         <v>0.116815</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F29" s="4">
+        <v>0.35859799999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>5.6</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="4">
         <v>-5.6</v>
       </c>
-      <c r="C29">
+      <c r="C30" s="4">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="D30" s="4">
         <v>0.31154100000000001</v>
       </c>
-      <c r="E29">
+      <c r="E30" s="4">
         <v>0.31681500000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="F30" s="4">
+        <v>0.40412999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>5.8</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="4">
         <v>-5.8</v>
       </c>
-      <c r="C30">
+      <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D31" s="4">
         <v>0.49411300000000002</v>
       </c>
-      <c r="E30">
+      <c r="E31" s="4">
         <v>0.51681500000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="F31" s="4">
+        <v>0.40154800000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>6</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="4">
         <v>-6</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="4">
         <v>-15</v>
       </c>
-      <c r="D31">
+      <c r="D32" s="4">
         <v>0.65698699999999999</v>
       </c>
-      <c r="E31">
+      <c r="E32" s="4">
         <v>0.71681499999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="F32" s="4">
+        <v>0.35947400000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>6.2</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="4">
         <v>-6.2</v>
       </c>
-      <c r="C32">
+      <c r="C33" s="4">
         <v>25</v>
       </c>
-      <c r="D32">
+      <c r="D33" s="4">
         <v>0.79366800000000004</v>
       </c>
-      <c r="E32">
+      <c r="E33" s="4">
         <v>0.91681500000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="F33" s="4">
+        <v>0.343472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>6.4</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="4">
         <v>-6.4</v>
       </c>
-      <c r="C33">
+      <c r="C34" s="4">
         <v>-20</v>
       </c>
-      <c r="D33">
+      <c r="D34" s="4">
         <v>0.89870799999999995</v>
       </c>
-      <c r="E33">
+      <c r="E34" s="4">
         <v>1.1168100000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="F34" s="4">
+        <v>0.38812799999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>6.6</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="4">
         <v>-6.6</v>
       </c>
-      <c r="C34">
+      <c r="C35" s="4">
         <v>-5</v>
       </c>
-      <c r="D34">
+      <c r="D35" s="4">
         <v>0.96792</v>
       </c>
-      <c r="E34">
+      <c r="E35" s="4">
         <v>1.31681</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="F35" s="4">
+        <v>0.33924500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>6.8</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="4">
         <v>-6.8</v>
       </c>
-      <c r="C35">
+      <c r="C36" s="4">
         <v>23</v>
       </c>
-      <c r="D35">
+      <c r="D36" s="4">
         <v>0.99854299999999996</v>
       </c>
-      <c r="E35">
+      <c r="E36" s="4">
         <v>1.51681</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="F36" s="4">
+        <v>0.41061700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>7</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="4">
         <v>-7</v>
       </c>
-      <c r="C36">
+      <c r="C37" s="4">
         <v>-6</v>
       </c>
-      <c r="D36">
+      <c r="D37" s="4">
         <v>0.98935799999999996</v>
       </c>
-      <c r="E36">
+      <c r="E37" s="4">
         <v>1.4247799999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="F37" s="4">
+        <v>0.37745400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>7.2</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="4">
         <v>-7.2</v>
       </c>
-      <c r="C37">
+      <c r="C38" s="4">
         <v>24</v>
       </c>
-      <c r="D37">
+      <c r="D38" s="4">
         <v>0.94073099999999998</v>
       </c>
-      <c r="E37">
+      <c r="E38" s="4">
         <v>1.22478</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="F38" s="4">
+        <v>0.38369999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>7.4</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="4">
         <v>-7.4</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="4">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="4">
         <v>0.854599</v>
       </c>
-      <c r="E38">
+      <c r="E39" s="4">
         <v>1.02478</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="F39" s="4">
+        <v>0.330868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>7.6</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="4">
         <v>-7.6</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="4">
         <v>-23</v>
       </c>
-      <c r="D39">
+      <c r="D40" s="4">
         <v>0.73439699999999997</v>
       </c>
-      <c r="E39">
+      <c r="E40" s="4">
         <v>0.82477800000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="F40" s="4">
+        <v>0.40808800000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>7.8</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="4">
         <v>-7.8</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="4">
         <v>13</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="4">
         <v>0.58491700000000002</v>
       </c>
-      <c r="E40">
+      <c r="E41" s="4">
         <v>0.62477800000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="F41" s="4">
+        <v>0.38592199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="4">
         <v>-8</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="4">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="4">
         <v>0.41211799999999998</v>
       </c>
-      <c r="E41">
+      <c r="E42" s="4">
         <v>0.42477799999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="F42" s="4">
+        <v>0.63190299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="4">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="4">
         <v>-23</v>
       </c>
-      <c r="D42">
+      <c r="D43" s="4">
         <v>0.22289</v>
       </c>
-      <c r="E42">
+      <c r="E43" s="4">
         <v>0.22477800000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="F43" s="4">
+        <v>0.66660200000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>8.4</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="4">
         <v>-8.4</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="4">
         <v>-16</v>
       </c>
-      <c r="D43">
+      <c r="D44" s="4">
         <v>2.47754E-2</v>
       </c>
-      <c r="E43">
+      <c r="E44" s="4">
         <v>2.4778000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="F44" s="4">
+        <v>0.65624199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>8.6</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="4">
         <v>-8.6</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="4">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D45" s="4">
         <v>-0.17432700000000001</v>
       </c>
-      <c r="E44">
+      <c r="E45" s="4">
         <v>-0.17522199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="F45" s="4">
+        <v>0.68610899999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="4">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="4">
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="D46" s="4">
         <v>-0.366479</v>
       </c>
-      <c r="E45">
+      <c r="E46" s="4">
         <v>-0.375222</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="F46" s="4">
+        <v>0.70522300000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="4">
         <v>-9</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="4">
         <v>16</v>
       </c>
-      <c r="D46">
+      <c r="D47" s="4">
         <v>-0.54402099999999998</v>
       </c>
-      <c r="E46">
+      <c r="E47" s="4">
         <v>-0.57522200000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="F47" s="4">
+        <v>0.68153300000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="4">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="4">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="D48" s="4">
         <v>-0.69987500000000002</v>
       </c>
-      <c r="E47">
+      <c r="E48" s="4">
         <v>-0.77522199999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="F48" s="4">
+        <v>0.69731299999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>9.4</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="4">
         <v>-9.4</v>
       </c>
-      <c r="C48">
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="D49" s="4">
         <v>-0.82782599999999995</v>
       </c>
-      <c r="E48">
+      <c r="E49" s="4">
         <v>-0.97522200000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="F49" s="4">
+        <v>0.63386200000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>9.6</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="4">
         <v>-9.6</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="4">
         <v>-8</v>
       </c>
-      <c r="D49">
+      <c r="D50" s="4">
         <v>-0.92277500000000001</v>
       </c>
-      <c r="E49">
+      <c r="E50" s="4">
         <v>-1.1752199999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="F50" s="4">
+        <v>0.65346199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="4">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="C50">
+      <c r="C51" s="4">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="D51" s="4">
         <v>-0.98093600000000003</v>
       </c>
-      <c r="E50">
+      <c r="E51" s="4">
         <v>-1.3752200000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="F51" s="4">
+        <v>0.63910199999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>10</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="4">
         <v>-10</v>
       </c>
-      <c r="C51">
+      <c r="C52" s="4">
         <v>-1</v>
       </c>
-      <c r="D51">
+      <c r="D52" s="4">
         <v>-0.99999000000000005</v>
       </c>
-      <c r="E51">
+      <c r="E52" s="4">
         <v>-1.56637</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="F52" s="4">
+        <v>0.64726600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="4">
         <v>-10.199999999999999</v>
       </c>
-      <c r="C52">
+      <c r="C53" s="4">
         <v>-11</v>
       </c>
-      <c r="D52">
+      <c r="D53" s="4">
         <v>-0.97917799999999999</v>
       </c>
-      <c r="E52">
+      <c r="E53" s="4">
         <v>-1.3663700000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="F53" s="4">
+        <v>0.65732699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>10.4</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="4">
         <v>-10.4</v>
       </c>
-      <c r="C53">
+      <c r="C54" s="4">
         <v>-22</v>
       </c>
-      <c r="D53">
+      <c r="D54" s="4">
         <v>-0.91932899999999995</v>
       </c>
-      <c r="E53">
+      <c r="E54" s="4">
         <v>-1.1663699999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="F54" s="4">
+        <v>0.68903099999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>10.6</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="4">
         <v>-10.6</v>
       </c>
-      <c r="C54">
+      <c r="C55" s="4">
         <v>7</v>
       </c>
-      <c r="D54">
+      <c r="D55" s="4">
         <v>-0.82282900000000003</v>
       </c>
-      <c r="E54">
+      <c r="E55" s="4">
         <v>-0.96637099999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="F55" s="4">
+        <v>0.67664100000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>10.8</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="4">
         <v>-10.8</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="4">
         <v>23</v>
       </c>
-      <c r="D55">
+      <c r="D56" s="4">
         <v>-0.69352499999999995</v>
       </c>
-      <c r="E55">
+      <c r="E56" s="4">
         <v>-0.76637100000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="F56" s="4">
+        <v>0.69553500000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>11</v>
       </c>
-      <c r="B56">
+      <c r="B57" s="4">
         <v>-11</v>
       </c>
-      <c r="C56">
+      <c r="C57" s="4">
         <v>-22</v>
       </c>
-      <c r="D56">
+      <c r="D57" s="4">
         <v>-0.53657299999999997</v>
       </c>
-      <c r="E56">
+      <c r="E57" s="4">
         <v>-0.56637099999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="F57" s="4">
+        <v>0.67905300000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>11.2</v>
       </c>
-      <c r="B57">
+      <c r="B58" s="4">
         <v>-11.2</v>
       </c>
-      <c r="C57">
+      <c r="C58" s="4">
         <v>-18</v>
       </c>
-      <c r="D57">
+      <c r="D58" s="4">
         <v>-0.35822900000000002</v>
       </c>
-      <c r="E57">
+      <c r="E58" s="4">
         <v>-0.366371</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="F58" s="4">
+        <v>0.69679899999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>11.4</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="4">
         <v>-11.4</v>
       </c>
-      <c r="C58">
+      <c r="C59" s="4">
         <v>19</v>
       </c>
-      <c r="D58">
+      <c r="D59" s="4">
         <v>-0.165604</v>
       </c>
-      <c r="E58">
+      <c r="E59" s="4">
         <v>-0.16637099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="F59" s="4">
+        <v>0.69696899999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>11.6</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="4">
         <v>-11.6</v>
       </c>
-      <c r="C59">
+      <c r="C60" s="4">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D60" s="4">
         <v>3.3623E-2</v>
       </c>
-      <c r="E59">
+      <c r="E60" s="4">
         <v>3.3629399999999997E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="F60" s="4">
+        <v>0.70635700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>11.8</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="4">
         <v>-11.8</v>
       </c>
-      <c r="C60">
+      <c r="C61" s="4">
         <v>-9</v>
       </c>
-      <c r="D60">
+      <c r="D61" s="4">
         <v>0.23150999999999999</v>
       </c>
-      <c r="E60">
+      <c r="E61" s="4">
         <v>0.233629</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="F61" s="4">
+        <v>0.63314800000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>12</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="4">
         <v>-12</v>
       </c>
-      <c r="C61">
+      <c r="C62" s="4">
         <v>-15</v>
       </c>
-      <c r="D61">
+      <c r="D62" s="4">
         <v>0.42016700000000001</v>
       </c>
-      <c r="E61">
+      <c r="E62" s="4">
         <v>0.43362899999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="F62" s="4">
+        <v>1.018907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>12.2</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="4">
         <v>-12.2</v>
       </c>
-      <c r="C62">
+      <c r="C63" s="4">
         <v>25</v>
       </c>
-      <c r="D62">
+      <c r="D63" s="4">
         <v>0.59207399999999999</v>
       </c>
-      <c r="E62">
+      <c r="E63" s="4">
         <v>0.633629</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="F63" s="4">
+        <v>0.93521600000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>12.4</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="4">
         <v>-12.4</v>
       </c>
-      <c r="C63">
+      <c r="C64" s="4">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="D64" s="4">
         <v>0.74037600000000003</v>
       </c>
-      <c r="E63">
+      <c r="E64" s="4">
         <v>0.83362899999999995</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="F64" s="4">
+        <v>0.94463699999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>12.6</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="4">
         <v>-12.6</v>
       </c>
-      <c r="C64">
+      <c r="C65" s="4">
         <v>22</v>
       </c>
-      <c r="D64">
+      <c r="D65" s="4">
         <v>0.85916199999999998</v>
       </c>
-      <c r="E64">
+      <c r="E65" s="4">
         <v>1.03363</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="F65" s="4">
+        <v>0.93900899999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>12.8</v>
       </c>
-      <c r="B65">
+      <c r="B66" s="4">
         <v>-12.8</v>
       </c>
-      <c r="C65">
+      <c r="C66" s="4">
         <v>22</v>
       </c>
-      <c r="D65">
+      <c r="D66" s="4">
         <v>0.94369599999999998</v>
       </c>
-      <c r="E65">
+      <c r="E66" s="4">
         <v>1.23363</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="F66" s="4">
+        <v>0.96984599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>13</v>
       </c>
-      <c r="B66">
+      <c r="B67" s="4">
         <v>-13</v>
       </c>
-      <c r="C66">
+      <c r="C67" s="4">
         <v>-9</v>
       </c>
-      <c r="D66">
+      <c r="D67" s="4">
         <v>0.99060700000000002</v>
       </c>
-      <c r="E66">
+      <c r="E67" s="4">
         <v>1.43363</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="F67" s="4">
+        <v>0.994865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>13.2</v>
       </c>
-      <c r="B67">
+      <c r="B68" s="4">
         <v>-13.2</v>
       </c>
-      <c r="C67">
+      <c r="C68" s="4">
         <v>-24</v>
       </c>
-      <c r="D67">
+      <c r="D68" s="4">
         <v>0.998027</v>
       </c>
-      <c r="E67">
+      <c r="E68" s="4">
         <v>1.50796</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="F68" s="4">
+        <v>0.94406599999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>13.4</v>
       </c>
-      <c r="B68">
+      <c r="B69" s="4">
         <v>-13.4</v>
       </c>
-      <c r="C68">
+      <c r="C69" s="4">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="D69" s="4">
         <v>0.96565800000000002</v>
       </c>
-      <c r="E68">
+      <c r="E69" s="4">
         <v>1.30796</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="F69" s="4">
+        <v>1.018195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>13.6</v>
       </c>
-      <c r="B69">
+      <c r="B70" s="4">
         <v>-13.6</v>
       </c>
-      <c r="C69">
+      <c r="C70" s="4">
         <v>4</v>
       </c>
-      <c r="D69">
+      <c r="D70" s="4">
         <v>0.894791</v>
       </c>
-      <c r="E69">
+      <c r="E70" s="4">
         <v>1.1079600000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="F70" s="4">
+        <v>1.0021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>13.8</v>
       </c>
-      <c r="B70">
+      <c r="B71" s="4">
         <v>-13.8</v>
       </c>
-      <c r="C70">
+      <c r="C71" s="4">
         <v>6</v>
       </c>
-      <c r="D70">
+      <c r="D71" s="4">
         <v>0.78825199999999995</v>
       </c>
-      <c r="E70">
+      <c r="E71" s="4">
         <v>0.90796299999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="F71" s="4">
+        <v>1.012084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>14</v>
       </c>
-      <c r="B71">
+      <c r="B72" s="4">
         <v>-14</v>
       </c>
-      <c r="C71">
+      <c r="C72" s="4">
         <v>-5</v>
       </c>
-      <c r="D71">
+      <c r="D72" s="4">
         <v>0.65028799999999998</v>
       </c>
-      <c r="E71">
+      <c r="E72" s="4">
         <v>0.70796300000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="F72" s="4">
+        <v>0.93034300000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>14.2</v>
       </c>
-      <c r="B72">
+      <c r="B73" s="4">
         <v>-14.2</v>
       </c>
-      <c r="C72">
+      <c r="C73" s="4">
         <v>22</v>
       </c>
-      <c r="D72">
+      <c r="D73" s="4">
         <v>0.48639900000000003</v>
       </c>
-      <c r="E72">
+      <c r="E73" s="4">
         <v>0.50796300000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="F73" s="4">
+        <v>0.97598200000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>14.4</v>
       </c>
-      <c r="B73">
+      <c r="B74" s="4">
         <v>-14.4</v>
       </c>
-      <c r="C73">
+      <c r="C74" s="4">
         <v>-10</v>
       </c>
-      <c r="D73">
+      <c r="D74" s="4">
         <v>0.303118</v>
       </c>
-      <c r="E73">
+      <c r="E74" s="4">
         <v>0.30796299999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="F74" s="4">
+        <v>1.017641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>14.6</v>
       </c>
-      <c r="B74">
+      <c r="B75" s="4">
         <v>-14.6</v>
       </c>
-      <c r="C74">
+      <c r="C75" s="4">
         <v>-16</v>
       </c>
-      <c r="D74">
+      <c r="D75" s="4">
         <v>0.107754</v>
       </c>
-      <c r="E74">
+      <c r="E75" s="4">
         <v>0.107963</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="F75" s="4">
+        <v>0.94243100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>14.8</v>
       </c>
-      <c r="B75">
+      <c r="B76" s="4">
         <v>-14.8</v>
       </c>
-      <c r="C75">
+      <c r="C76" s="4">
         <v>-9</v>
       </c>
-      <c r="D75">
+      <c r="D76" s="4">
         <v>-9.19069E-2</v>
       </c>
-      <c r="E75">
+      <c r="E76" s="4">
         <v>-9.2036699999999999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="F76" s="4">
+        <v>1.017317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>15</v>
       </c>
-      <c r="B76">
+      <c r="B77" s="4">
         <v>-15</v>
       </c>
-      <c r="C76">
+      <c r="C77" s="4">
         <v>-16</v>
       </c>
-      <c r="D76">
+      <c r="D77" s="4">
         <v>-0.28790300000000002</v>
       </c>
-      <c r="E76">
+      <c r="E77" s="4">
         <v>-0.29203699999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="F77" s="4">
+        <v>0.93424600000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>15.2</v>
       </c>
-      <c r="B77">
+      <c r="B78" s="4">
         <v>-15.2</v>
       </c>
-      <c r="C77">
+      <c r="C78" s="4">
         <v>-10</v>
       </c>
-      <c r="D77">
+      <c r="D78" s="4">
         <v>-0.47242200000000001</v>
       </c>
-      <c r="E77">
+      <c r="E78" s="4">
         <v>-0.492037</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="F78" s="4">
+        <v>1.015649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>15.4</v>
       </c>
-      <c r="B78">
+      <c r="B79" s="4">
         <v>-15.4</v>
       </c>
-      <c r="C78">
+      <c r="C79" s="4">
         <v>-20</v>
       </c>
-      <c r="D78">
+      <c r="D79" s="4">
         <v>-0.63810699999999998</v>
       </c>
-      <c r="E78">
+      <c r="E79" s="4">
         <v>-0.69203700000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="F79" s="4">
+        <v>0.99899899999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>15.6</v>
       </c>
-      <c r="B79">
+      <c r="B80" s="4">
         <v>-15.6</v>
       </c>
-      <c r="C79">
+      <c r="C80" s="4">
         <v>21</v>
       </c>
-      <c r="D79">
+      <c r="D80" s="4">
         <v>-0.77835200000000004</v>
       </c>
-      <c r="E79">
+      <c r="E80" s="4">
         <v>-0.89203699999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="F80" s="4">
+        <v>0.96882400000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>15.8</v>
       </c>
-      <c r="B80">
+      <c r="B81" s="4">
         <v>-15.8</v>
       </c>
-      <c r="C80">
+      <c r="C81" s="4">
         <v>-7</v>
       </c>
-      <c r="D80">
+      <c r="D81" s="4">
         <v>-0.88756699999999999</v>
       </c>
-      <c r="E80">
+      <c r="E81" s="4">
         <v>-1.0920399999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="F81" s="4">
+        <v>0.97712200000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>16</v>
       </c>
-      <c r="B81">
+      <c r="B82" s="4">
         <v>-16</v>
       </c>
-      <c r="C81">
+      <c r="C82" s="4">
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="D82" s="4">
         <v>-0.96139699999999995</v>
       </c>
-      <c r="E81">
+      <c r="E82" s="4">
         <v>-1.2920400000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="F82" s="4">
+        <v>1.2517210000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>16.2</v>
       </c>
-      <c r="B82">
+      <c r="B83" s="4">
         <v>-16.2</v>
       </c>
-      <c r="C82">
+      <c r="C83" s="4">
         <v>-11</v>
       </c>
-      <c r="D82">
+      <c r="D83" s="4">
         <v>-0.99690000000000001</v>
       </c>
-      <c r="E82">
+      <c r="E83" s="4">
         <v>-1.49204</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="F83" s="4">
+        <v>1.306019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="B83">
+      <c r="B84" s="4">
         <v>-16.399999999999999</v>
       </c>
-      <c r="C83">
+      <c r="C84" s="4">
         <v>16</v>
       </c>
-      <c r="D83">
+      <c r="D84" s="4">
         <v>-0.99265899999999996</v>
       </c>
-      <c r="E83">
+      <c r="E84" s="4">
         <v>-1.44956</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="F84" s="4">
+        <v>1.2341059999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="B84">
+      <c r="B85" s="4">
         <v>-16.600000000000001</v>
       </c>
-      <c r="C84">
+      <c r="C85" s="4">
         <v>15</v>
       </c>
-      <c r="D84">
+      <c r="D85" s="4">
         <v>-0.94884400000000002</v>
       </c>
-      <c r="E84">
+      <c r="E85" s="4">
         <v>-1.24956</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="F85" s="4">
+        <v>1.236073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>16.8</v>
       </c>
-      <c r="B85">
+      <c r="B86" s="4">
         <v>-16.8</v>
       </c>
-      <c r="C85">
+      <c r="C86" s="4">
         <v>19</v>
       </c>
-      <c r="D85">
+      <c r="D86" s="4">
         <v>-0.86720200000000003</v>
       </c>
-      <c r="E85">
+      <c r="E86" s="4">
         <v>-1.04956</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="F86" s="4">
+        <v>1.288894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>17</v>
       </c>
-      <c r="B86">
+      <c r="B87" s="4">
         <v>-17</v>
       </c>
-      <c r="C86">
+      <c r="C87" s="4">
         <v>-15</v>
       </c>
-      <c r="D86">
+      <c r="D87" s="4">
         <v>-0.75098699999999996</v>
       </c>
-      <c r="E86">
+      <c r="E87" s="4">
         <v>-0.84955599999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="F87" s="4">
+        <v>1.3070409999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>17.2</v>
       </c>
-      <c r="B87">
+      <c r="B88" s="4">
         <v>-17.2</v>
       </c>
-      <c r="C87">
+      <c r="C88" s="4">
         <v>-9</v>
       </c>
-      <c r="D87">
+      <c r="D88" s="4">
         <v>-0.60483299999999995</v>
       </c>
-      <c r="E87">
+      <c r="E88" s="4">
         <v>-0.64955600000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="F88" s="4">
+        <v>1.2395389999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="B88">
+      <c r="B89" s="4">
         <v>-17.399999999999999</v>
       </c>
-      <c r="C88">
+      <c r="C89" s="4">
         <v>6</v>
       </c>
-      <c r="D88">
+      <c r="D89" s="4">
         <v>-0.43456600000000001</v>
       </c>
-      <c r="E88">
+      <c r="E89" s="4">
         <v>-0.44955600000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="F89" s="4">
+        <v>1.2359439999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="B89">
+      <c r="B90" s="4">
         <v>-17.600000000000001</v>
       </c>
-      <c r="C89">
+      <c r="C90" s="4">
         <v>-1</v>
       </c>
-      <c r="D89">
+      <c r="D90" s="4">
         <v>-0.246974</v>
       </c>
-      <c r="E89">
+      <c r="E90" s="4">
         <v>-0.249556</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="F90" s="4">
+        <v>1.2958019999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>17.8</v>
       </c>
-      <c r="B90">
+      <c r="B91" s="4">
         <v>-17.8</v>
       </c>
-      <c r="C90">
+      <c r="C91" s="4">
         <v>-4</v>
       </c>
-      <c r="D90">
+      <c r="D91" s="4">
         <v>-4.9535599999999999E-2</v>
       </c>
-      <c r="E90">
+      <c r="E91" s="4">
         <v>-4.95559E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="F91" s="4">
+        <v>1.281711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>18</v>
       </c>
-      <c r="B91">
+      <c r="B92" s="4">
         <v>-18</v>
       </c>
-      <c r="C91">
+      <c r="C92" s="4">
         <v>-21</v>
       </c>
-      <c r="D91">
+      <c r="D92" s="4">
         <v>0.14987700000000001</v>
       </c>
-      <c r="E91">
+      <c r="E92" s="4">
         <v>0.15044399999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="F92" s="4">
+        <v>1.284524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>18.2</v>
       </c>
-      <c r="B92">
+      <c r="B93" s="4">
         <v>-18.2</v>
       </c>
-      <c r="C92">
+      <c r="C93" s="4">
         <v>5</v>
       </c>
-      <c r="D92">
+      <c r="D93" s="4">
         <v>0.34331499999999998</v>
       </c>
-      <c r="E92">
+      <c r="E93" s="4">
         <v>0.35044399999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="F93" s="4">
+        <v>1.2384869999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="B93">
+      <c r="B94" s="4">
         <v>-18.399999999999999</v>
       </c>
-      <c r="C93">
+      <c r="C94" s="4">
         <v>-9</v>
       </c>
-      <c r="D93">
+      <c r="D94" s="4">
         <v>0.52306600000000003</v>
       </c>
-      <c r="E93">
+      <c r="E94" s="4">
         <v>0.55044400000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="F94" s="4">
+        <v>1.2822750000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="B94">
+      <c r="B95" s="4">
         <v>-18.600000000000001</v>
       </c>
-      <c r="C94">
+      <c r="C95" s="4">
         <v>25</v>
       </c>
-      <c r="D94">
+      <c r="D95" s="4">
         <v>0.68196400000000001</v>
       </c>
-      <c r="E94">
+      <c r="E95" s="4">
         <v>0.750444</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="F95" s="4">
+        <v>1.2902340000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>18.8</v>
       </c>
-      <c r="B95">
+      <c r="B96" s="4">
         <v>-18.8</v>
       </c>
-      <c r="C95">
+      <c r="C96" s="4">
         <v>21</v>
       </c>
-      <c r="D95">
+      <c r="D96" s="4">
         <v>0.81367400000000001</v>
       </c>
-      <c r="E95">
+      <c r="E96" s="4">
         <v>0.95044399999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="F96" s="4">
+        <v>1.234364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>19</v>
       </c>
-      <c r="B96">
+      <c r="B97" s="4">
         <v>-19</v>
       </c>
-      <c r="C96">
+      <c r="C97" s="4">
         <v>-24</v>
       </c>
-      <c r="D96">
+      <c r="D97" s="4">
         <v>0.91294500000000001</v>
       </c>
-      <c r="E96">
+      <c r="E97" s="4">
         <v>1.1504399999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="F97" s="4">
+        <v>1.2850159999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>19.2</v>
       </c>
-      <c r="B97">
+      <c r="B98" s="4">
         <v>-19.2</v>
       </c>
-      <c r="C97">
+      <c r="C98" s="4">
         <v>-4</v>
       </c>
-      <c r="D97">
+      <c r="D98" s="4">
         <v>0.97582100000000005</v>
       </c>
-      <c r="E97">
+      <c r="E98" s="4">
         <v>1.3504400000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="F98" s="4">
+        <v>1.267684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="B98">
+      <c r="B99" s="4">
         <v>-19.399999999999999</v>
       </c>
-      <c r="C98">
+      <c r="C99" s="4">
         <v>13</v>
       </c>
-      <c r="D98">
+      <c r="D99" s="4">
         <v>0.99979300000000004</v>
       </c>
-      <c r="E98">
+      <c r="E99" s="4">
         <v>1.55044</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="F99" s="4">
+        <v>1.249573</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="B99">
+      <c r="B100" s="4">
         <v>-19.600000000000001</v>
       </c>
-      <c r="C99">
+      <c r="C100" s="4">
         <v>-19</v>
       </c>
-      <c r="D99">
+      <c r="D100" s="4">
         <v>0.98390699999999998</v>
       </c>
-      <c r="E99">
+      <c r="E100" s="4">
         <v>1.3911500000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="F100" s="4">
+        <v>1.2779290000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>19.8</v>
       </c>
-      <c r="B100">
+      <c r="B101" s="4">
         <v>-19.8</v>
       </c>
-      <c r="C100">
+      <c r="C101" s="4">
         <v>-23</v>
       </c>
-      <c r="D100">
+      <c r="D101" s="4">
         <v>0.92879500000000004</v>
       </c>
-      <c r="E100">
+      <c r="E101" s="4">
         <v>1.1911499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="F101" s="4">
+        <v>1.3046709999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>20</v>
       </c>
-      <c r="B101">
+      <c r="B102" s="4">
         <v>-20</v>
       </c>
-      <c r="C101">
+      <c r="C102" s="4">
         <v>6</v>
       </c>
-      <c r="D101">
+      <c r="D102" s="4">
         <v>0.83665599999999996</v>
       </c>
-      <c r="E101">
+      <c r="E102" s="4">
         <v>0.99114899999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="F102" s="4">
+        <v>1.582371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>20.2</v>
       </c>
-      <c r="B102">
+      <c r="B103" s="4">
         <v>-20.2</v>
       </c>
-      <c r="C102">
+      <c r="C103" s="4">
         <v>-14</v>
       </c>
-      <c r="D102">
+      <c r="D103" s="4">
         <v>0.71116100000000004</v>
       </c>
-      <c r="E102">
+      <c r="E103" s="4">
         <v>0.79114899999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="F103" s="4">
+        <v>1.600441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="B103">
+      <c r="B104" s="4">
         <v>-20.399999999999999</v>
       </c>
-      <c r="C103">
+      <c r="C104" s="4">
         <v>3</v>
       </c>
-      <c r="D103">
+      <c r="D104" s="4">
         <v>0.557315</v>
       </c>
-      <c r="E103">
+      <c r="E104" s="4">
         <v>0.59114900000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="F104" s="4">
+        <v>1.542907</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>20.6</v>
       </c>
-      <c r="B104">
+      <c r="B105" s="4">
         <v>-20.6</v>
       </c>
-      <c r="C104">
+      <c r="C105" s="4">
         <v>10</v>
       </c>
-      <c r="D104">
+      <c r="D105" s="4">
         <v>0.38124999999999998</v>
       </c>
-      <c r="E104">
+      <c r="E105" s="4">
         <v>0.39114900000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="F105" s="4">
+        <v>1.5899080000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>20.8</v>
       </c>
-      <c r="B105">
+      <c r="B106" s="4">
         <v>-20.8</v>
       </c>
-      <c r="C105">
+      <c r="C106" s="4">
         <v>-4</v>
       </c>
-      <c r="D105">
+      <c r="D106" s="4">
         <v>0.18998699999999999</v>
       </c>
-      <c r="E105">
+      <c r="E106" s="4">
         <v>0.19114900000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="F106" s="4">
+        <v>1.557428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>21</v>
       </c>
-      <c r="B106">
+      <c r="B107" s="4">
         <v>-21</v>
       </c>
-      <c r="C106">
+      <c r="C107" s="4">
         <v>14</v>
       </c>
-      <c r="D106">
+      <c r="D107" s="4">
         <v>-8.8513099999999994E-3</v>
       </c>
-      <c r="E106">
+      <c r="E107" s="4">
         <v>-8.8514200000000005E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="F107" s="4">
+        <v>1.549166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>21.2</v>
       </c>
-      <c r="B107">
+      <c r="B108" s="4">
         <v>-21.2</v>
       </c>
-      <c r="C107">
+      <c r="C108" s="4">
         <v>-23</v>
       </c>
-      <c r="D107">
+      <c r="D108" s="4">
         <v>-0.20733599999999999</v>
       </c>
-      <c r="E107">
+      <c r="E108" s="4">
         <v>-0.20885100000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="F108" s="4">
+        <v>1.5464640000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>21.4</v>
       </c>
-      <c r="B108">
+      <c r="B109" s="4">
         <v>-21.4</v>
       </c>
-      <c r="C108">
+      <c r="C109" s="4">
         <v>11</v>
       </c>
-      <c r="D108">
+      <c r="D109" s="4">
         <v>-0.39755600000000002</v>
       </c>
-      <c r="E108">
+      <c r="E109" s="4">
         <v>-0.40885100000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="F109" s="4">
+        <v>1.545749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>21.6</v>
       </c>
-      <c r="B109">
+      <c r="B110" s="4">
         <v>-21.6</v>
       </c>
-      <c r="C109">
+      <c r="C110" s="4">
         <v>5</v>
       </c>
-      <c r="D109">
+      <c r="D110" s="4">
         <v>-0.57192600000000005</v>
       </c>
-      <c r="E109">
+      <c r="E110" s="4">
         <v>-0.60885100000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="F110" s="4">
+        <v>1.5331939999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>21.8</v>
       </c>
-      <c r="B110">
+      <c r="B111" s="4">
         <v>-21.8</v>
       </c>
-      <c r="C110">
+      <c r="C111" s="4">
         <v>11</v>
       </c>
-      <c r="D110">
+      <c r="D111" s="4">
         <v>-0.723495</v>
       </c>
-      <c r="E110">
+      <c r="E111" s="4">
         <v>-0.80885099999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="F111" s="4">
+        <v>1.6034870000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>22</v>
       </c>
-      <c r="B111">
+      <c r="B112" s="4">
         <v>-22</v>
       </c>
-      <c r="C111">
+      <c r="C112" s="4">
         <v>23</v>
       </c>
-      <c r="D111">
+      <c r="D112" s="4">
         <v>-0.84621999999999997</v>
       </c>
-      <c r="E111">
+      <c r="E112" s="4">
         <v>-1.00885</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="F112" s="4">
+        <v>1.554138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>22.2</v>
       </c>
-      <c r="B112">
+      <c r="B113" s="4">
         <v>-22.2</v>
       </c>
-      <c r="C112">
+      <c r="C113" s="4">
         <v>15</v>
       </c>
-      <c r="D112">
+      <c r="D113" s="4">
         <v>-0.93520999999999999</v>
       </c>
-      <c r="E112">
+      <c r="E113" s="4">
         <v>-1.20885</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="F113" s="4">
+        <v>1.5643769999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>22.4</v>
       </c>
-      <c r="B113">
+      <c r="B114" s="4">
         <v>-22.4</v>
       </c>
-      <c r="C113">
+      <c r="C114" s="4">
         <v>-17</v>
       </c>
-      <c r="D113">
+      <c r="D114" s="4">
         <v>-0.98691600000000002</v>
       </c>
-      <c r="E113">
+      <c r="E114" s="4">
         <v>-1.4088499999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="F114" s="4">
+        <v>1.581753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>22.6</v>
       </c>
-      <c r="B114">
+      <c r="B115" s="4">
         <v>-22.6</v>
       </c>
-      <c r="C114">
+      <c r="C115" s="4">
         <v>-11</v>
       </c>
-      <c r="D114">
+      <c r="D115" s="4">
         <v>-0.99927600000000005</v>
       </c>
-      <c r="E114">
+      <c r="E115" s="4">
         <v>-1.53274</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="F115" s="4">
+        <v>1.5363059999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>22.8</v>
       </c>
-      <c r="B115">
+      <c r="B116" s="4">
         <v>-22.8</v>
       </c>
-      <c r="C115">
+      <c r="C116" s="4">
         <v>22</v>
       </c>
-      <c r="D115">
+      <c r="D116" s="4">
         <v>-0.97179800000000005</v>
       </c>
-      <c r="E115">
+      <c r="E116" s="4">
         <v>-1.33274</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="F116" s="4">
+        <v>1.6047610000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>23</v>
       </c>
-      <c r="B116">
+      <c r="B117" s="4">
         <v>-23</v>
       </c>
-      <c r="C116">
+      <c r="C117" s="4">
         <v>-1</v>
       </c>
-      <c r="D116">
+      <c r="D117" s="4">
         <v>-0.90557799999999999</v>
       </c>
-      <c r="E116">
+      <c r="E117" s="4">
         <v>-1.1327400000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="F117" s="4">
+        <v>1.6116090000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>23.2</v>
       </c>
-      <c r="B117">
+      <c r="B118" s="4">
         <v>-23.2</v>
       </c>
-      <c r="C117">
+      <c r="C118" s="4">
         <v>-2</v>
       </c>
-      <c r="D117">
+      <c r="D118" s="4">
         <v>-0.80325599999999997</v>
       </c>
-      <c r="E117">
+      <c r="E118" s="4">
         <v>-0.93274100000000004</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="F118" s="4">
+        <v>1.603721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>23.4</v>
       </c>
-      <c r="B118">
+      <c r="B119" s="4">
         <v>-23.4</v>
       </c>
-      <c r="C118">
+      <c r="C119" s="4">
         <v>18</v>
       </c>
-      <c r="D118">
+      <c r="D119" s="4">
         <v>-0.66891</v>
       </c>
-      <c r="E118">
+      <c r="E119" s="4">
         <v>-0.73274099999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="F119" s="4">
+        <v>1.5765450000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>23.6</v>
       </c>
-      <c r="B119">
+      <c r="B120" s="4">
         <v>-23.6</v>
       </c>
-      <c r="C119">
+      <c r="C120" s="4">
         <v>22</v>
       </c>
-      <c r="D119">
+      <c r="D120" s="4">
         <v>-0.50789700000000004</v>
       </c>
-      <c r="E119">
+      <c r="E120" s="4">
         <v>-0.53274100000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="F120" s="4">
+        <v>1.534227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>23.8</v>
       </c>
-      <c r="B120">
+      <c r="B121" s="4">
         <v>-23.8</v>
       </c>
-      <c r="C120">
+      <c r="C121" s="4">
         <v>-18</v>
       </c>
-      <c r="D120">
+      <c r="D121" s="4">
         <v>-0.32663500000000001</v>
       </c>
-      <c r="E120">
+      <c r="E121" s="4">
         <v>-0.33274100000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="F121" s="4">
+        <v>1.556832</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>24</v>
       </c>
-      <c r="B121">
+      <c r="B122" s="4">
         <v>-24</v>
       </c>
-      <c r="C121">
+      <c r="C122" s="4">
         <v>-18</v>
       </c>
-      <c r="D121">
+      <c r="D122" s="4">
         <v>-0.132352</v>
       </c>
-      <c r="E121">
+      <c r="E122" s="4">
         <v>-0.132741</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="F122" s="4">
+        <v>1.8647069999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>24.2</v>
       </c>
-      <c r="B122">
+      <c r="B123" s="4">
         <v>-24.2</v>
       </c>
-      <c r="C122">
+      <c r="C123" s="4">
         <v>-19</v>
       </c>
-      <c r="D122">
+      <c r="D123" s="4">
         <v>6.7208100000000007E-2</v>
       </c>
-      <c r="E122">
+      <c r="E123" s="4">
         <v>6.7258799999999994E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="F123" s="4">
+        <v>1.8310569999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>24.4</v>
       </c>
-      <c r="B123">
+      <c r="B124" s="4">
         <v>-24.4</v>
       </c>
-      <c r="C123">
+      <c r="C124" s="4">
         <v>-22</v>
       </c>
-      <c r="D123">
+      <c r="D124" s="4">
         <v>0.26408900000000002</v>
       </c>
-      <c r="E123">
+      <c r="E124" s="4">
         <v>0.26725900000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="F124" s="4">
+        <v>1.8959280000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>24.6</v>
       </c>
-      <c r="B124">
+      <c r="B125" s="4">
         <v>-24.6</v>
       </c>
-      <c r="C124">
+      <c r="C125" s="4">
         <v>5</v>
       </c>
-      <c r="D124">
+      <c r="D125" s="4">
         <v>0.45044099999999998</v>
       </c>
-      <c r="E124">
+      <c r="E125" s="4">
         <v>0.46725899999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="F125" s="4">
+        <v>1.8729659999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>24.8</v>
       </c>
-      <c r="B125">
+      <c r="B126" s="4">
         <v>-24.8</v>
       </c>
-      <c r="C125">
+      <c r="C126" s="4">
         <v>-14</v>
       </c>
-      <c r="D125">
+      <c r="D126" s="4">
         <v>0.61883500000000002</v>
       </c>
-      <c r="E125">
+      <c r="E126" s="4">
         <v>0.66725900000000005</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="F126" s="4">
+        <v>1.91168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>25</v>
       </c>
-      <c r="B126">
+      <c r="B127" s="4">
         <v>-25</v>
       </c>
-      <c r="C126">
+      <c r="C127" s="4">
         <v>-6</v>
       </c>
-      <c r="D126">
+      <c r="D127" s="4">
         <v>0.76255799999999996</v>
       </c>
-      <c r="E126">
+      <c r="E127" s="4">
         <v>0.867259</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="F127" s="4">
+        <v>1.9167730000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>25.2</v>
       </c>
-      <c r="B127">
+      <c r="B128" s="4">
         <v>-25.2</v>
       </c>
-      <c r="C127">
+      <c r="C128" s="4">
         <v>-9</v>
       </c>
-      <c r="D127">
+      <c r="D128" s="4">
         <v>0.87588100000000002</v>
       </c>
-      <c r="E127">
+      <c r="E128" s="4">
         <v>1.0672600000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="F128" s="4">
+        <v>1.850649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>25.4</v>
       </c>
-      <c r="B128">
+      <c r="B129" s="4">
         <v>-25.4</v>
       </c>
-      <c r="C128">
+      <c r="C129" s="4">
         <v>-16</v>
       </c>
-      <c r="D128">
+      <c r="D129" s="4">
         <v>0.95428500000000005</v>
       </c>
-      <c r="E128">
+      <c r="E129" s="4">
         <v>1.2672600000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="F129" s="4">
+        <v>1.848004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>25.6</v>
       </c>
-      <c r="B129">
+      <c r="B130" s="4">
         <v>-25.6</v>
       </c>
-      <c r="C129">
+      <c r="C130" s="4">
         <v>5</v>
       </c>
-      <c r="D129">
+      <c r="D130" s="4">
         <v>0.994645</v>
       </c>
-      <c r="E129">
+      <c r="E130" s="4">
         <v>1.46726</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="F130" s="4">
+        <v>1.8545910000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>25.8</v>
       </c>
-      <c r="B130">
+      <c r="B131" s="4">
         <v>-25.8</v>
       </c>
-      <c r="C130">
+      <c r="C131" s="4">
         <v>-15</v>
       </c>
-      <c r="D130">
+      <c r="D131" s="4">
         <v>0.99535099999999999</v>
       </c>
-      <c r="E130">
+      <c r="E131" s="4">
         <v>1.4743299999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="F131" s="4">
+        <v>1.897016</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>26</v>
       </c>
-      <c r="B131">
+      <c r="B132" s="4">
         <v>-26</v>
       </c>
-      <c r="C131">
+      <c r="C132" s="4">
         <v>19</v>
       </c>
-      <c r="D131">
+      <c r="D132" s="4">
         <v>0.956376</v>
       </c>
-      <c r="E131">
+      <c r="E132" s="4">
         <v>1.27433</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="F132" s="4">
+        <v>1.9037729999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>26.2</v>
       </c>
-      <c r="B132">
+      <c r="B133" s="4">
         <v>-26.2</v>
       </c>
-      <c r="C132">
+      <c r="C133" s="4">
         <v>-8</v>
       </c>
-      <c r="D132">
+      <c r="D133" s="4">
         <v>0.87927299999999997</v>
       </c>
-      <c r="E132">
+      <c r="E133" s="4">
         <v>1.07433</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="F133" s="4">
+        <v>1.9146909999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>26.4</v>
       </c>
-      <c r="B133">
+      <c r="B134" s="4">
         <v>-26.4</v>
       </c>
-      <c r="C133">
+      <c r="C134" s="4">
         <v>21</v>
       </c>
-      <c r="D133">
+      <c r="D134" s="4">
         <v>0.76711600000000002</v>
       </c>
-      <c r="E133">
+      <c r="E134" s="4">
         <v>0.87433399999999994</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="F134" s="4">
+        <v>1.8835980000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>26.6</v>
       </c>
-      <c r="B134">
+      <c r="B135" s="4">
         <v>-26.6</v>
       </c>
-      <c r="C134">
+      <c r="C135" s="4">
         <v>13</v>
       </c>
-      <c r="D134">
+      <c r="D135" s="4">
         <v>0.62437699999999996</v>
       </c>
-      <c r="E134">
+      <c r="E135" s="4">
         <v>0.67433399999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="F135" s="4">
+        <v>1.9111910000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>26.8</v>
       </c>
-      <c r="B135">
+      <c r="B136" s="4">
         <v>-26.8</v>
       </c>
-      <c r="C135">
+      <c r="C136" s="4">
         <v>19</v>
       </c>
-      <c r="D135">
+      <c r="D136" s="4">
         <v>0.45674599999999999</v>
       </c>
-      <c r="E135">
+      <c r="E136" s="4">
         <v>0.47433399999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="F136" s="4">
+        <v>1.892539</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>27</v>
       </c>
-      <c r="B136">
+      <c r="B137" s="4">
         <v>-27</v>
       </c>
-      <c r="C136">
+      <c r="C137" s="4">
         <v>25</v>
       </c>
-      <c r="D136">
+      <c r="D137" s="4">
         <v>0.27090599999999998</v>
       </c>
-      <c r="E136">
+      <c r="E137" s="4">
         <v>0.27433400000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="F137" s="4">
+        <v>1.8399129999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>27.2</v>
       </c>
-      <c r="B137">
+      <c r="B138" s="4">
         <v>-27.2</v>
       </c>
-      <c r="C137">
+      <c r="C138" s="4">
         <v>-13</v>
       </c>
-      <c r="D137">
+      <c r="D138" s="4">
         <v>7.4265399999999995E-2</v>
       </c>
-      <c r="E137">
+      <c r="E138" s="4">
         <v>7.4333899999999994E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="F138" s="4">
+        <v>1.8471089999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>27.4</v>
       </c>
-      <c r="B138">
+      <c r="B139" s="4">
         <v>-27.4</v>
       </c>
-      <c r="C138">
+      <c r="C139" s="4">
         <v>-10</v>
       </c>
-      <c r="D138">
+      <c r="D139" s="4">
         <v>-0.125336</v>
       </c>
-      <c r="E138">
+      <c r="E139" s="4">
         <v>-0.125666</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="F139" s="4">
+        <v>1.8617840000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>27.6</v>
       </c>
-      <c r="B139">
+      <c r="B140" s="4">
         <v>-27.6</v>
       </c>
-      <c r="C139">
+      <c r="C140" s="4">
         <v>-3</v>
       </c>
-      <c r="D139">
+      <c r="D140" s="4">
         <v>-0.31994</v>
       </c>
-      <c r="E139">
+      <c r="E140" s="4">
         <v>-0.32566600000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="F140" s="4">
+        <v>1.831272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>27.8</v>
       </c>
-      <c r="B140">
+      <c r="B141" s="4">
         <v>-27.8</v>
       </c>
-      <c r="C140">
+      <c r="C141" s="4">
         <v>-10</v>
       </c>
-      <c r="D140">
+      <c r="D141" s="4">
         <v>-0.50178900000000004</v>
       </c>
-      <c r="E140">
+      <c r="E141" s="4">
         <v>-0.52566599999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="F141" s="4">
+        <v>1.830371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>28</v>
       </c>
-      <c r="B141">
+      <c r="B142" s="4">
         <v>-28</v>
       </c>
-      <c r="C141">
+      <c r="C142" s="4">
         <v>-14</v>
       </c>
-      <c r="D141">
+      <c r="D142" s="4">
         <v>-0.66363399999999995</v>
       </c>
-      <c r="E141">
+      <c r="E142" s="4">
         <v>-0.72566600000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="F142" s="4">
+        <v>2.1610870000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>28.2</v>
       </c>
-      <c r="B142">
+      <c r="B143" s="4">
         <v>-28.2</v>
       </c>
-      <c r="C142">
+      <c r="C143" s="4">
         <v>-1</v>
       </c>
-      <c r="D142">
+      <c r="D143" s="4">
         <v>-0.79902099999999998</v>
       </c>
-      <c r="E142">
+      <c r="E143" s="4">
         <v>-0.92566599999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="F143" s="4">
+        <v>2.147818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>28.4</v>
       </c>
-      <c r="B143">
+      <c r="B144" s="4">
         <v>-28.4</v>
       </c>
-      <c r="C143">
+      <c r="C144" s="4">
         <v>-9</v>
       </c>
-      <c r="D143">
+      <c r="D144" s="4">
         <v>-0.902555</v>
       </c>
-      <c r="E143">
+      <c r="E144" s="4">
         <v>-1.1256699999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="F144" s="4">
+        <v>2.1372810000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>28.6</v>
       </c>
-      <c r="B144">
+      <c r="B145" s="4">
         <v>-28.6</v>
       </c>
-      <c r="C144">
+      <c r="C145" s="4">
         <v>-25</v>
       </c>
-      <c r="D144">
+      <c r="D145" s="4">
         <v>-0.97010600000000002</v>
       </c>
-      <c r="E144">
+      <c r="E145" s="4">
         <v>-1.3256699999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="F145" s="4">
+        <v>2.1660550000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>28.8</v>
       </c>
-      <c r="B145">
+      <c r="B146" s="4">
         <v>-28.8</v>
       </c>
-      <c r="C145">
+      <c r="C146" s="4">
         <v>16</v>
       </c>
-      <c r="D145">
+      <c r="D146" s="4">
         <v>-0.99898200000000004</v>
       </c>
-      <c r="E145">
+      <c r="E146" s="4">
         <v>-1.5256700000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="F146" s="4">
+        <v>2.1447880000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>29</v>
       </c>
-      <c r="B146">
+      <c r="B147" s="4">
         <v>-29</v>
       </c>
-      <c r="C146">
+      <c r="C147" s="4">
         <v>12</v>
       </c>
-      <c r="D146">
+      <c r="D147" s="4">
         <v>-0.98803200000000002</v>
       </c>
-      <c r="E146">
+      <c r="E147" s="4">
         <v>-1.4159299999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="F147" s="4">
+        <v>2.158766</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>29.2</v>
       </c>
-      <c r="B147">
+      <c r="B148" s="4">
         <v>-29.2</v>
       </c>
-      <c r="C147">
+      <c r="C148" s="4">
         <v>-2</v>
       </c>
-      <c r="D147">
+      <c r="D148" s="4">
         <v>-0.93769199999999997</v>
       </c>
-      <c r="E147">
+      <c r="E148" s="4">
         <v>-1.21593</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="F148" s="4">
+        <v>2.145321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>29.4</v>
       </c>
-      <c r="B148">
+      <c r="B149" s="4">
         <v>-29.4</v>
       </c>
-      <c r="C148">
+      <c r="C149" s="4">
         <v>-18</v>
       </c>
-      <c r="D148">
+      <c r="D149" s="4">
         <v>-0.84996899999999997</v>
       </c>
-      <c r="E148">
+      <c r="E149" s="4">
         <v>-1.01593</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="F149" s="4">
+        <v>2.148142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>29.6</v>
       </c>
-      <c r="B149">
+      <c r="B150" s="4">
         <v>-29.6</v>
       </c>
-      <c r="C149">
+      <c r="C150" s="4">
         <v>-17</v>
       </c>
-      <c r="D149">
+      <c r="D150" s="4">
         <v>-0.72836100000000004</v>
       </c>
-      <c r="E149">
+      <c r="E150" s="4">
         <v>-0.81592699999999996</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="F150" s="4">
+        <v>2.1533799999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>29.8</v>
       </c>
-      <c r="B150">
+      <c r="B151" s="4">
         <v>-29.8</v>
       </c>
-      <c r="C150">
+      <c r="C151" s="4">
         <v>-21</v>
       </c>
-      <c r="D150">
+      <c r="D151" s="4">
         <v>-0.57771499999999998</v>
       </c>
-      <c r="E150">
+      <c r="E151" s="4">
         <v>-0.615927</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="F151" s="4">
+        <v>2.1680519999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>30</v>
       </c>
-      <c r="B151">
+      <c r="B152" s="4">
         <v>-30</v>
       </c>
-      <c r="C151">
+      <c r="C152" s="4">
         <v>17</v>
       </c>
-      <c r="D151">
+      <c r="D152" s="4">
         <v>-0.40403800000000001</v>
       </c>
-      <c r="E151">
+      <c r="E152" s="4">
         <v>-0.41592699999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="F152" s="4">
+        <v>2.1333839999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>30.2</v>
       </c>
-      <c r="B152">
+      <c r="B153" s="4">
         <v>-30.2</v>
       </c>
-      <c r="C152">
+      <c r="C153" s="4">
         <v>-13</v>
       </c>
-      <c r="D152">
+      <c r="D153" s="4">
         <v>-0.214253</v>
       </c>
-      <c r="E152">
+      <c r="E153" s="4">
         <v>-0.21592700000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="F153" s="4">
+        <v>2.1328399999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>30.4</v>
       </c>
-      <c r="B153">
+      <c r="B154" s="4">
         <v>-30.4</v>
       </c>
-      <c r="C153">
+      <c r="C154" s="4">
         <v>-21</v>
       </c>
-      <c r="D153">
+      <c r="D154" s="4">
         <v>-1.59259E-2</v>
       </c>
-      <c r="E153">
+      <c r="E154" s="4">
         <v>-1.59265E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="F154" s="4">
+        <v>2.1826430000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>30.6</v>
       </c>
-      <c r="B154">
+      <c r="B155" s="4">
         <v>-30.6</v>
       </c>
-      <c r="C154">
+      <c r="C155" s="4">
         <v>21</v>
       </c>
-      <c r="D154">
+      <c r="D155" s="4">
         <v>0.183036</v>
       </c>
-      <c r="E154">
+      <c r="E155" s="4">
         <v>0.18407299999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="F155" s="4">
+        <v>2.1901410000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>30.8</v>
       </c>
-      <c r="B155">
+      <c r="B156" s="4">
         <v>-30.8</v>
       </c>
-      <c r="C155">
+      <c r="C156" s="4">
         <v>17</v>
       </c>
-      <c r="D155">
+      <c r="D156" s="4">
         <v>0.37469999999999998</v>
       </c>
-      <c r="E155">
+      <c r="E156" s="4">
         <v>0.384073</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="F156" s="4">
+        <v>2.1876769999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>31</v>
       </c>
-      <c r="B156">
+      <c r="B157" s="4">
         <v>-31</v>
       </c>
-      <c r="C156">
+      <c r="C157" s="4">
         <v>-2</v>
       </c>
-      <c r="D156">
+      <c r="D157" s="4">
         <v>0.551427</v>
       </c>
-      <c r="E156">
+      <c r="E157" s="4">
         <v>0.58407299999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="F157" s="4">
+        <v>2.1477490000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>31.2</v>
       </c>
-      <c r="B157">
+      <c r="B158" s="4">
         <v>-31.2</v>
       </c>
-      <c r="C157">
+      <c r="C158" s="4">
         <v>-1</v>
       </c>
-      <c r="D157">
+      <c r="D158" s="4">
         <v>0.70616900000000005</v>
       </c>
-      <c r="E157">
+      <c r="E158" s="4">
         <v>0.78407300000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="F158" s="4">
+        <v>2.1461260000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>31.4</v>
       </c>
-      <c r="B158">
+      <c r="B159" s="4">
         <v>-31.4</v>
       </c>
-      <c r="C158">
+      <c r="C159" s="4">
         <v>4</v>
       </c>
-      <c r="D158">
+      <c r="D159" s="4">
         <v>0.83275900000000003</v>
       </c>
-      <c r="E158">
+      <c r="E159" s="4">
         <v>0.98407299999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="F159" s="4">
+        <v>2.1803080000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>31.6</v>
       </c>
-      <c r="B159">
+      <c r="B160" s="4">
         <v>-31.6</v>
       </c>
-      <c r="C159">
+      <c r="C160" s="4">
         <v>-15</v>
       </c>
-      <c r="D159">
+      <c r="D160" s="4">
         <v>0.92615000000000003</v>
       </c>
-      <c r="E159">
+      <c r="E160" s="4">
         <v>1.18407</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="F160" s="4">
+        <v>2.1395499999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>31.8</v>
       </c>
-      <c r="B160">
+      <c r="B161" s="4">
         <v>-31.8</v>
       </c>
-      <c r="C160">
+      <c r="C161" s="4">
         <v>-4</v>
       </c>
-      <c r="D160">
+      <c r="D161" s="4">
         <v>0.98261799999999999</v>
       </c>
-      <c r="E160">
+      <c r="E161" s="4">
         <v>1.3840699999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="F161" s="4">
+        <v>2.212307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>32</v>
       </c>
-      <c r="B161">
+      <c r="B162" s="4">
         <v>-32</v>
       </c>
-      <c r="C161">
+      <c r="C162" s="4">
         <v>-5</v>
       </c>
-      <c r="D161">
+      <c r="D162" s="4">
         <v>0.99991200000000002</v>
       </c>
-      <c r="E161">
+      <c r="E162" s="4">
         <v>1.55752</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="F162" s="4">
+        <v>2.440083</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>32.200000000000003</v>
       </c>
-      <c r="B162">
+      <c r="B163" s="4">
         <v>-32.200000000000003</v>
       </c>
-      <c r="C162">
+      <c r="C163" s="4">
         <v>0</v>
       </c>
-      <c r="D162">
+      <c r="D163" s="4">
         <v>0.97734299999999996</v>
       </c>
-      <c r="E162">
+      <c r="E163" s="4">
         <v>1.3575200000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="F163" s="4">
+        <v>2.4511470000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>32.4</v>
       </c>
-      <c r="B163">
+      <c r="B164" s="4">
         <v>-32.4</v>
       </c>
-      <c r="C163">
+      <c r="C164" s="4">
         <v>21</v>
       </c>
-      <c r="D163">
+      <c r="D164" s="4">
         <v>0.91581000000000001</v>
       </c>
-      <c r="E163">
+      <c r="E164" s="4">
         <v>1.1575200000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="F164" s="4">
+        <v>2.472216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>32.6</v>
       </c>
-      <c r="B164">
+      <c r="B165" s="4">
         <v>-32.6</v>
       </c>
-      <c r="C164">
+      <c r="C165" s="4">
         <v>-12</v>
       </c>
-      <c r="D164">
+      <c r="D165" s="4">
         <v>0.81776599999999999</v>
       </c>
-      <c r="E164">
+      <c r="E165" s="4">
         <v>0.95751900000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="F165" s="4">
+        <v>2.4488699999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="B165">
+      <c r="B166" s="4">
         <v>-32.799999999999997</v>
       </c>
-      <c r="C165">
+      <c r="C166" s="4">
         <v>-6</v>
       </c>
-      <c r="D165">
+      <c r="D166" s="4">
         <v>0.68712099999999998</v>
       </c>
-      <c r="E165">
+      <c r="E166" s="4">
         <v>0.75751900000000005</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="F166" s="4">
+        <v>2.4664239999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>33</v>
       </c>
-      <c r="B166">
+      <c r="B167" s="4">
         <v>-33</v>
       </c>
-      <c r="C166">
+      <c r="C167" s="4">
         <v>3</v>
       </c>
-      <c r="D166">
+      <c r="D167" s="4">
         <v>0.52908299999999997</v>
       </c>
-      <c r="E166">
+      <c r="E167" s="4">
         <v>0.55751899999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="F167" s="4">
+        <v>2.5048879999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="B167">
+      <c r="B168" s="4">
         <v>-33.200000000000003</v>
       </c>
-      <c r="C167">
+      <c r="C168" s="4">
         <v>1</v>
       </c>
-      <c r="D167">
+      <c r="D168" s="4">
         <v>0.34995100000000001</v>
       </c>
-      <c r="E167">
+      <c r="E168" s="4">
         <v>0.35751899999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="F168" s="4">
+        <v>2.450059</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>33.4</v>
       </c>
-      <c r="B168">
+      <c r="B169" s="4">
         <v>-33.4</v>
       </c>
-      <c r="C168">
+      <c r="C169" s="4">
         <v>1</v>
       </c>
-      <c r="D168">
+      <c r="D169" s="4">
         <v>0.15686900000000001</v>
       </c>
-      <c r="E168">
+      <c r="E169" s="4">
         <v>0.15751899999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="F169" s="4">
+        <v>2.4660359999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>33.6</v>
       </c>
-      <c r="B169">
+      <c r="B170" s="4">
         <v>-33.6</v>
       </c>
-      <c r="C169">
+      <c r="C170" s="4">
         <v>16</v>
       </c>
-      <c r="D169">
+      <c r="D170" s="4">
         <v>-4.2467999999999999E-2</v>
       </c>
-      <c r="E169">
+      <c r="E170" s="4">
         <v>-4.2480799999999999E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="F170" s="4">
+        <v>2.4490919999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="B170">
+      <c r="B171" s="4">
         <v>-33.799999999999997</v>
       </c>
-      <c r="C170">
+      <c r="C171" s="4">
         <v>6</v>
       </c>
-      <c r="D170">
+      <c r="D171" s="4">
         <v>-0.24011199999999999</v>
       </c>
-      <c r="E170">
+      <c r="E171" s="4">
         <v>-0.242481</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="F171" s="4">
+        <v>2.4355669999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>34</v>
       </c>
-      <c r="B171">
+      <c r="B172" s="4">
         <v>-34</v>
       </c>
-      <c r="C171">
+      <c r="C172" s="4">
         <v>-23</v>
       </c>
-      <c r="D171">
+      <c r="D172" s="4">
         <v>-0.42818299999999998</v>
       </c>
-      <c r="E171">
+      <c r="E172" s="4">
         <v>-0.44248100000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="F172" s="4">
+        <v>2.4483830000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>34.200000000000003</v>
       </c>
-      <c r="B172">
+      <c r="B173" s="4">
         <v>-34.200000000000003</v>
       </c>
-      <c r="C172">
+      <c r="C173" s="4">
         <v>-8</v>
       </c>
-      <c r="D172">
+      <c r="D173" s="4">
         <v>-0.59918300000000002</v>
       </c>
-      <c r="E172">
+      <c r="E173" s="4">
         <v>-0.64248099999999997</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="F173" s="4">
+        <v>2.4806870000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>34.4</v>
       </c>
-      <c r="B173">
+      <c r="B174" s="4">
         <v>-34.4</v>
       </c>
-      <c r="C173">
+      <c r="C174" s="4">
         <v>-24</v>
       </c>
-      <c r="D173">
+      <c r="D174" s="4">
         <v>-0.74629699999999999</v>
       </c>
-      <c r="E173">
+      <c r="E174" s="4">
         <v>-0.84248100000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="F174" s="4">
+        <v>2.4341089999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>34.6</v>
       </c>
-      <c r="B174">
+      <c r="B175" s="4">
         <v>-34.6</v>
       </c>
-      <c r="C174">
+      <c r="C175" s="4">
         <v>-10</v>
       </c>
-      <c r="D174">
+      <c r="D175" s="4">
         <v>-0.86365700000000001</v>
       </c>
-      <c r="E174">
+      <c r="E175" s="4">
         <v>-1.0424800000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="F175" s="4">
+        <v>2.4901330000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="B175">
+      <c r="B176" s="4">
         <v>-34.799999999999997</v>
       </c>
-      <c r="C175">
+      <c r="C176" s="4">
         <v>20</v>
       </c>
-      <c r="D175">
+      <c r="D176" s="4">
         <v>-0.94658699999999996</v>
       </c>
-      <c r="E175">
+      <c r="E176" s="4">
         <v>-1.24248</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="F176" s="4">
+        <v>2.5063460000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>35</v>
       </c>
-      <c r="B176">
+      <c r="B177" s="4">
         <v>-35</v>
       </c>
-      <c r="C176">
+      <c r="C177" s="4">
         <v>23</v>
       </c>
-      <c r="D176">
+      <c r="D177" s="4">
         <v>-0.99177899999999997</v>
       </c>
-      <c r="E176">
+      <c r="E177" s="4">
         <v>-1.44248</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="F177" s="4">
+        <v>2.510389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>35.200000000000003</v>
       </c>
-      <c r="B177">
+      <c r="B178" s="4">
         <v>-35.200000000000003</v>
       </c>
-      <c r="C177">
+      <c r="C178" s="4">
         <v>-10</v>
       </c>
-      <c r="D177">
+      <c r="D178" s="4">
         <v>-0.99743199999999999</v>
       </c>
-      <c r="E177">
+      <c r="E178" s="4">
         <v>-1.4991099999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="F178" s="4">
+        <v>2.458628</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>35.4</v>
       </c>
-      <c r="B178">
+      <c r="B179" s="4">
         <v>-35.4</v>
       </c>
-      <c r="C178">
+      <c r="C179" s="4">
         <v>-18</v>
       </c>
-      <c r="D178">
+      <c r="D179" s="4">
         <v>-0.96331999999999995</v>
       </c>
-      <c r="E178">
+      <c r="E179" s="4">
         <v>-1.29911</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="F179" s="4">
+        <v>2.5125130000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>35.6</v>
       </c>
-      <c r="B179">
+      <c r="B180" s="4">
         <v>-35.6</v>
       </c>
-      <c r="C179">
+      <c r="C180" s="4">
         <v>1</v>
       </c>
-      <c r="D179">
+      <c r="D180" s="4">
         <v>-0.89080400000000004</v>
       </c>
-      <c r="E179">
+      <c r="E180" s="4">
         <v>-1.09911</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="F180" s="4">
+        <v>2.460947</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>35.799999999999997</v>
       </c>
-      <c r="B180">
+      <c r="B181" s="4">
         <v>-35.799999999999997</v>
       </c>
-      <c r="C180">
+      <c r="C181" s="4">
         <v>-1</v>
       </c>
-      <c r="D180">
+      <c r="D181" s="4">
         <v>-0.782775</v>
       </c>
-      <c r="E180">
+      <c r="E181" s="4">
         <v>-0.89911200000000002</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="F181" s="4">
+        <v>2.4627020000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>36</v>
       </c>
-      <c r="B181">
+      <c r="B182" s="4">
         <v>-36</v>
       </c>
-      <c r="C181">
+      <c r="C182" s="4">
         <v>1</v>
       </c>
-      <c r="D181">
+      <c r="D182" s="4">
         <v>-0.64353800000000005</v>
       </c>
-      <c r="E181">
+      <c r="E182" s="4">
         <v>-0.69911199999999996</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="F182" s="4">
+        <v>2.8193049999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>36.200000000000003</v>
       </c>
-      <c r="B182">
+      <c r="B183" s="4">
         <v>-36.200000000000003</v>
       </c>
-      <c r="C182">
+      <c r="C183" s="4">
         <v>-25</v>
       </c>
-      <c r="D182">
+      <c r="D183" s="4">
         <v>-0.47864600000000002</v>
       </c>
-      <c r="E182">
+      <c r="E183" s="4">
         <v>-0.499112</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="F183" s="4">
+        <v>2.799785</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>36.4</v>
       </c>
-      <c r="B183">
+      <c r="B184" s="4">
         <v>-36.4</v>
       </c>
-      <c r="C183">
+      <c r="C184" s="4">
         <v>-11</v>
       </c>
-      <c r="D183">
+      <c r="D184" s="4">
         <v>-0.29467199999999999</v>
       </c>
-      <c r="E183">
+      <c r="E184" s="4">
         <v>-0.29911199999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="F184" s="4">
+        <v>2.7948650000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>36.6</v>
       </c>
-      <c r="B184">
+      <c r="B185" s="4">
         <v>-36.6</v>
       </c>
-      <c r="C184">
+      <c r="C185" s="4">
         <v>-18</v>
       </c>
-      <c r="D184">
+      <c r="D185" s="4">
         <v>-9.8949700000000002E-2</v>
       </c>
-      <c r="E184">
+      <c r="E185" s="4">
         <v>-9.91118E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="F185" s="4">
+        <v>2.7829120000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="B185">
+      <c r="B186" s="4">
         <v>-36.799999999999997</v>
       </c>
-      <c r="C185">
+      <c r="C186" s="4">
         <v>-24</v>
       </c>
-      <c r="D185">
+      <c r="D186" s="4">
         <v>0.100717</v>
       </c>
-      <c r="E185">
+      <c r="E186" s="4">
         <v>0.10088800000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="F186" s="4">
+        <v>2.7852899999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>37</v>
       </c>
-      <c r="B186">
+      <c r="B187" s="4">
         <v>-37</v>
       </c>
-      <c r="C186">
+      <c r="C187" s="4">
         <v>-23</v>
       </c>
-      <c r="D186">
+      <c r="D187" s="4">
         <v>0.29636899999999999</v>
       </c>
-      <c r="E186">
+      <c r="E187" s="4">
         <v>0.30088799999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="F187" s="4">
+        <v>2.8144019999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="B187">
+      <c r="B188" s="4">
         <v>-37.200000000000003</v>
       </c>
-      <c r="C187">
+      <c r="C188" s="4">
         <v>14</v>
       </c>
-      <c r="D187">
+      <c r="D188" s="4">
         <v>0.48020499999999999</v>
       </c>
-      <c r="E187">
+      <c r="E188" s="4">
         <v>0.500888</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="F188" s="4">
+        <v>2.7659509999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>37.4</v>
       </c>
-      <c r="B188">
+      <c r="B189" s="4">
         <v>-37.4</v>
       </c>
-      <c r="C188">
+      <c r="C189" s="4">
         <v>-7</v>
       </c>
-      <c r="D188">
+      <c r="D189" s="4">
         <v>0.64489700000000005</v>
       </c>
-      <c r="E188">
+      <c r="E189" s="4">
         <v>0.70088799999999996</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="F189" s="4">
+        <v>2.7568160000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>37.6</v>
       </c>
-      <c r="B189">
+      <c r="B190" s="4">
         <v>-37.6</v>
       </c>
-      <c r="C189">
+      <c r="C190" s="4">
         <v>18</v>
       </c>
-      <c r="D189">
+      <c r="D190" s="4">
         <v>0.78387899999999999</v>
       </c>
-      <c r="E189">
+      <c r="E190" s="4">
         <v>0.90088800000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="F190" s="4">
+        <v>2.7761879999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>37.799999999999997</v>
       </c>
-      <c r="B190">
+      <c r="B191" s="4">
         <v>-37.799999999999997</v>
       </c>
-      <c r="C190">
+      <c r="C191" s="4">
         <v>0</v>
       </c>
-      <c r="D190">
+      <c r="D191" s="4">
         <v>0.89161000000000001</v>
       </c>
-      <c r="E190">
+      <c r="E191" s="4">
         <v>1.1008899999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="F191" s="4">
+        <v>2.7616360000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>38</v>
       </c>
-      <c r="B191">
+      <c r="B192" s="4">
         <v>-38</v>
       </c>
-      <c r="C191">
+      <c r="C192" s="4">
         <v>18</v>
       </c>
-      <c r="D191">
+      <c r="D192" s="4">
         <v>0.96379499999999996</v>
       </c>
-      <c r="E191">
+      <c r="E192" s="4">
         <v>1.3008900000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="F192" s="4">
+        <v>2.751188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="B192">
+      <c r="B193" s="4">
         <v>-38.200000000000003</v>
       </c>
-      <c r="C192">
+      <c r="C193" s="4">
         <v>-23</v>
       </c>
-      <c r="D192">
+      <c r="D193" s="4">
         <v>0.99755700000000003</v>
       </c>
-      <c r="E192">
+      <c r="E193" s="4">
         <v>1.5008900000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="F193" s="4">
+        <v>2.7600570000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>38.4</v>
       </c>
-      <c r="B193">
+      <c r="B194" s="4">
         <v>-38.4</v>
       </c>
-      <c r="C193">
+      <c r="C194" s="4">
         <v>7</v>
       </c>
-      <c r="D193">
+      <c r="D194" s="4">
         <v>0.99155000000000004</v>
       </c>
-      <c r="E193">
+      <c r="E194" s="4">
         <v>1.4407000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="F194" s="4">
+        <v>2.7702360000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>38.6</v>
       </c>
-      <c r="B194">
+      <c r="B195" s="4">
         <v>-38.6</v>
       </c>
-      <c r="C194">
+      <c r="C195" s="4">
         <v>16</v>
       </c>
-      <c r="D194">
+      <c r="D195" s="4">
         <v>0.94601299999999999</v>
       </c>
-      <c r="E194">
+      <c r="E195" s="4">
         <v>1.2406999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="F195" s="4">
+        <v>2.7662399999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="B195">
+      <c r="B196" s="4">
         <v>-38.799999999999997</v>
       </c>
-      <c r="C195">
+      <c r="C196" s="4">
         <v>-6</v>
       </c>
-      <c r="D195">
+      <c r="D196" s="4">
         <v>0.862761</v>
       </c>
-      <c r="E195">
+      <c r="E196" s="4">
         <v>1.0407</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="F196" s="4">
+        <v>2.782953</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>39</v>
       </c>
-      <c r="B196">
+      <c r="B197" s="4">
         <v>-39</v>
       </c>
-      <c r="C196">
+      <c r="C197" s="4">
         <v>-25</v>
       </c>
-      <c r="D196">
+      <c r="D197" s="4">
         <v>0.74511300000000003</v>
       </c>
-      <c r="E196">
+      <c r="E197" s="4">
         <v>0.84070400000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="F197" s="4">
+        <v>2.78064</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>39.200000000000003</v>
       </c>
-      <c r="B197">
+      <c r="B198" s="4">
         <v>-39.200000000000003</v>
       </c>
-      <c r="C197">
+      <c r="C198" s="4">
         <v>6</v>
       </c>
-      <c r="D197">
+      <c r="D198" s="4">
         <v>0.59775999999999996</v>
       </c>
-      <c r="E197">
+      <c r="E198" s="4">
         <v>0.64070400000000005</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="F198" s="4">
+        <v>2.7730619999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>39.4</v>
       </c>
-      <c r="B198">
+      <c r="B199" s="4">
         <v>-39.4</v>
       </c>
-      <c r="C198">
+      <c r="C199" s="4">
         <v>-25</v>
       </c>
-      <c r="D198">
+      <c r="D199" s="4">
         <v>0.42657699999999998</v>
       </c>
-      <c r="E198">
+      <c r="E199" s="4">
         <v>0.44070399999999998</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="F199" s="4">
+        <v>2.767407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>39.6</v>
       </c>
-      <c r="B199">
+      <c r="B200" s="4">
         <v>-39.6</v>
       </c>
-      <c r="C199">
+      <c r="C200" s="4">
         <v>-6</v>
       </c>
-      <c r="D199">
+      <c r="D200" s="4">
         <v>0.23838699999999999</v>
       </c>
-      <c r="E199">
+      <c r="E200" s="4">
         <v>0.240704</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="F200" s="4">
+        <v>2.7703570000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="B200">
+      <c r="B201" s="6">
         <v>-39.799999999999997</v>
       </c>
-      <c r="C200">
+      <c r="C201" s="6">
         <v>-17</v>
       </c>
-      <c r="D200">
+      <c r="D201" s="6">
         <v>4.0693300000000002E-2</v>
       </c>
-      <c r="E200">
+      <c r="E201" s="6">
         <v>4.0704499999999998E-2</v>
+      </c>
+      <c r="F201" s="6">
+        <v>2.7861199999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauzh\source\repos\LW1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Часть 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Часть 2" sheetId="2" r:id="rId2"/>
+    <sheet name="первая задача" sheetId="1" r:id="rId1"/>
+    <sheet name="вторая задача" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Возрастание</t>
   </si>
@@ -50,11 +45,14 @@
   <si>
     <t>Дробные Числа</t>
   </si>
+  <si>
+    <t>Количество элементов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -174,11 +172,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -195,6 +266,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,7 +292,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -262,26 +340,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -309,7 +367,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$A$3:$A$202</c:f>
+              <c:f>'первая задача'!$A$3:$A$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -917,7 +975,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-73F8-4BB4-B5A6-58CDBD484618}"/>
             </c:ext>
@@ -943,7 +1001,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$B$3:$B$202</c:f>
+              <c:f>'первая задача'!$B$3:$B$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -1551,7 +1609,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-73F8-4BB4-B5A6-58CDBD484618}"/>
             </c:ext>
@@ -1577,7 +1635,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$C$3:$C$202</c:f>
+              <c:f>'первая задача'!$C$3:$C$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -2185,7 +2243,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-73F8-4BB4-B5A6-58CDBD484618}"/>
             </c:ext>
@@ -2199,12 +2257,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095110720"/>
-        <c:axId val="2095111552"/>
+        <c:axId val="173070848"/>
+        <c:axId val="209276864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095110720"/>
+        <c:axId val="173070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,10 +2302,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095111552"/>
+        <c:crossAx val="209276864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095111552"/>
+        <c:axId val="209276864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,10 +2361,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095110720"/>
+        <c:crossAx val="173070848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2345,7 +2404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2375,7 +2434,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2387,7 +2446,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2440,26 +2499,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2487,7 +2526,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$D$3:$D$202</c:f>
+              <c:f>'первая задача'!$D$3:$D$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -3095,7 +3134,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-019E-4600-85E4-CFF93DF24B32}"/>
             </c:ext>
@@ -3121,7 +3160,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$E$3:$E$202</c:f>
+              <c:f>'первая задача'!$E$3:$E$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -3729,7 +3768,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-019E-4600-85E4-CFF93DF24B32}"/>
             </c:ext>
@@ -3755,7 +3794,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$F$3:$F$202</c:f>
+              <c:f>'первая задача'!$F$3:$F$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -4363,7 +4402,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-019E-4600-85E4-CFF93DF24B32}"/>
             </c:ext>
@@ -4377,12 +4416,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125504576"/>
-        <c:axId val="2125511648"/>
+        <c:axId val="184329728"/>
+        <c:axId val="209278592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125504576"/>
+        <c:axId val="184329728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,10 +4461,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125511648"/>
+        <c:crossAx val="209278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4432,7 +4472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125511648"/>
+        <c:axId val="209278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,10 +4520,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125504576"/>
+        <c:crossAx val="184329728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,7 +4563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4553,7 +4593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4565,7 +4605,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4613,26 +4653,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4660,7 +4680,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$G$3:$G$202</c:f>
+              <c:f>'первая задача'!$G$3:$G$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -5268,7 +5288,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D247-4837-8807-C255DBD0E77C}"/>
             </c:ext>
@@ -5294,7 +5314,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$H$3:$H$202</c:f>
+              <c:f>'первая задача'!$H$3:$H$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -5902,7 +5922,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D247-4837-8807-C255DBD0E77C}"/>
             </c:ext>
@@ -5928,7 +5948,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$I$3:$I$202</c:f>
+              <c:f>'первая задача'!$I$3:$I$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -6536,7 +6556,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D247-4837-8807-C255DBD0E77C}"/>
             </c:ext>
@@ -6550,12 +6570,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091881792"/>
-        <c:axId val="2091874304"/>
+        <c:axId val="184330240"/>
+        <c:axId val="209280320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091881792"/>
+        <c:axId val="184330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6594,10 +6615,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091874304"/>
+        <c:crossAx val="209280320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6605,7 +6626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091874304"/>
+        <c:axId val="209280320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,10 +6674,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091881792"/>
+        <c:crossAx val="184330240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6696,7 +6717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6726,7 +6747,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6738,7 +6759,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6786,26 +6807,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6833,7 +6834,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$J$3:$J$202</c:f>
+              <c:f>'первая задача'!$J$3:$J$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -7441,7 +7442,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-83B6-48AD-9DB7-C25C840BB1A4}"/>
             </c:ext>
@@ -7467,7 +7468,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$K$3:$K$202</c:f>
+              <c:f>'первая задача'!$K$3:$K$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -8075,7 +8076,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-83B6-48AD-9DB7-C25C840BB1A4}"/>
             </c:ext>
@@ -8101,7 +8102,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Часть 1'!$L$3:$L$202</c:f>
+              <c:f>'первая задача'!$L$3:$L$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -8709,7 +8710,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-83B6-48AD-9DB7-C25C840BB1A4}"/>
             </c:ext>
@@ -8723,12 +8724,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091877632"/>
-        <c:axId val="2091882208"/>
+        <c:axId val="184330752"/>
+        <c:axId val="185074816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091877632"/>
+        <c:axId val="184330752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8767,10 +8769,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091882208"/>
+        <c:crossAx val="185074816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8778,7 +8780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091882208"/>
+        <c:axId val="185074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8826,10 +8828,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091877632"/>
+        <c:crossAx val="184330752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8869,7 +8871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8899,9 +8901,666 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Возрастание</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Убывание</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Случайная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Синусоидальная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Пилообразная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'вторая задача'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ступенчатая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'вторая задача'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'вторая задача'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="160757760"/>
+        <c:axId val="186517760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="160757760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186517760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186517760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160757760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -11259,6 +11918,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -11514,7 +12208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11524,20 +12218,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -11555,7 +12249,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11593,7 +12287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -11631,7 +12325,7 @@
         <v>20.668661</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -11669,7 +12363,7 @@
         <v>-21.401105000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -11707,7 +12401,7 @@
         <v>6.5538499999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -11745,7 +12439,7 @@
         <v>-9.1784420000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -11783,7 +12477,7 @@
         <v>-36.526077999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -11821,7 +12515,7 @@
         <v>29.653310000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -11859,7 +12553,7 @@
         <v>47.213659999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -11897,7 +12591,7 @@
         <v>-9.269997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -11935,7 +12629,7 @@
         <v>-11.87933</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -11973,7 +12667,7 @@
         <v>12.453078</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>49</v>
       </c>
@@ -12011,7 +12705,7 @@
         <v>38.924833</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -12049,7 +12743,7 @@
         <v>-35.805841000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -12087,7 +12781,7 @@
         <v>15.092929</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>65</v>
       </c>
@@ -12125,7 +12819,7 @@
         <v>9.9414040000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -12163,7 +12857,7 @@
         <v>49.728385000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>75</v>
       </c>
@@ -12201,7 +12895,7 @@
         <v>6.556902</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -12239,7 +12933,7 @@
         <v>9.9810789999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>85</v>
       </c>
@@ -12277,7 +12971,7 @@
         <v>20.513016</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>90</v>
       </c>
@@ -12315,7 +13009,7 @@
         <v>48.931851999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>95</v>
       </c>
@@ -12353,7 +13047,7 @@
         <v>-33.608508999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -12391,7 +13085,7 @@
         <v>7.5579090000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>105</v>
       </c>
@@ -12429,7 +13123,7 @@
         <v>48.278756000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>110</v>
       </c>
@@ -12467,7 +13161,7 @@
         <v>48.861660000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>115</v>
       </c>
@@ -12505,7 +13199,7 @@
         <v>-17.259743</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>120</v>
       </c>
@@ -12543,7 +13237,7 @@
         <v>12.639241</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>125</v>
       </c>
@@ -12581,7 +13275,7 @@
         <v>-36.968595999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>130</v>
       </c>
@@ -12619,7 +13313,7 @@
         <v>37.450789</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>135</v>
       </c>
@@ -12657,7 +13351,7 @@
         <v>49.856563000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>140</v>
       </c>
@@ -12695,7 +13389,7 @@
         <v>18.294321</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>145</v>
       </c>
@@ -12733,7 +13427,7 @@
         <v>8.0736720000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>150</v>
       </c>
@@ -12771,7 +13465,7 @@
         <v>-32.732627000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>155</v>
       </c>
@@ -12809,7 +13503,7 @@
         <v>12.630084999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>160</v>
       </c>
@@ -12847,7 +13541,7 @@
         <v>32.085635000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>165</v>
       </c>
@@ -12885,7 +13579,7 @@
         <v>-15.981017</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>170</v>
       </c>
@@ -12923,7 +13617,7 @@
         <v>16.606646999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>175</v>
       </c>
@@ -12961,7 +13655,7 @@
         <v>45.803705000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>180</v>
       </c>
@@ -12999,7 +13693,7 @@
         <v>-49.081392999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>185</v>
       </c>
@@ -13037,7 +13731,7 @@
         <v>-13.313700000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>190</v>
       </c>
@@ -13075,7 +13769,7 @@
         <v>-11.726737</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>195</v>
       </c>
@@ -13113,7 +13807,7 @@
         <v>20.094912999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>200</v>
       </c>
@@ -13151,7 +13845,7 @@
         <v>175.20523700000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -13189,7 +13883,7 @@
         <v>227.24845099999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>210</v>
       </c>
@@ -13227,7 +13921,7 @@
         <v>161.70995199999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>215</v>
       </c>
@@ -13265,7 +13959,7 @@
         <v>208.360546</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>220</v>
       </c>
@@ -13303,7 +13997,7 @@
         <v>202.81533200000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>225</v>
       </c>
@@ -13341,7 +14035,7 @@
         <v>212.69112200000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>229</v>
       </c>
@@ -13379,7 +14073,7 @@
         <v>164.05072200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>234</v>
       </c>
@@ -13417,7 +14111,7 @@
         <v>234.93301199999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>239</v>
       </c>
@@ -13455,7 +14149,7 @@
         <v>193.63536500000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>244</v>
       </c>
@@ -13493,7 +14187,7 @@
         <v>214.77858800000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>249</v>
       </c>
@@ -13531,7 +14225,7 @@
         <v>175.73320699999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>254</v>
       </c>
@@ -13569,7 +14263,7 @@
         <v>221.21494200000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>259</v>
       </c>
@@ -13607,7 +14301,7 @@
         <v>245.19638699999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>264</v>
       </c>
@@ -13645,7 +14339,7 @@
         <v>205.62913900000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>269</v>
       </c>
@@ -13683,7 +14377,7 @@
         <v>236.34601900000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>274</v>
       </c>
@@ -13721,7 +14415,7 @@
         <v>230.74587199999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>279</v>
       </c>
@@ -13759,7 +14453,7 @@
         <v>170.072024</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>284</v>
       </c>
@@ -13797,7 +14491,7 @@
         <v>187.96807799999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>289</v>
       </c>
@@ -13835,7 +14529,7 @@
         <v>166.238899</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>294</v>
       </c>
@@ -13873,7 +14567,7 @@
         <v>166.73940200000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>299</v>
       </c>
@@ -13911,7 +14605,7 @@
         <v>215.694143</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>304</v>
       </c>
@@ -13949,7 +14643,7 @@
         <v>198.29859300000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>309</v>
       </c>
@@ -13987,7 +14681,7 @@
         <v>169.656972</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>314</v>
       </c>
@@ -14025,7 +14719,7 @@
         <v>225.34409600000001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>319</v>
       </c>
@@ -14063,7 +14757,7 @@
         <v>217.11020199999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>324</v>
       </c>
@@ -14101,7 +14795,7 @@
         <v>210.991241</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>329</v>
       </c>
@@ -14139,7 +14833,7 @@
         <v>234.85366400000001</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>334</v>
       </c>
@@ -14177,7 +14871,7 @@
         <v>157.64488700000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>339</v>
       </c>
@@ -14215,7 +14909,7 @@
         <v>223.44584499999999</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>344</v>
       </c>
@@ -14253,7 +14947,7 @@
         <v>221.50792000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -14291,7 +14985,7 @@
         <v>196.967986</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>354</v>
       </c>
@@ -14329,7 +15023,7 @@
         <v>243.627735</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>359</v>
       </c>
@@ -14367,7 +15061,7 @@
         <v>188.56623999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>364</v>
       </c>
@@ -14405,7 +15099,7 @@
         <v>236.84652199999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>369</v>
       </c>
@@ -14443,7 +15137,7 @@
         <v>179.20011</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>374</v>
       </c>
@@ -14481,7 +15175,7 @@
         <v>231.124302</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>379</v>
       </c>
@@ -14519,7 +15213,7 @@
         <v>166.65700200000001</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>384</v>
       </c>
@@ -14557,7 +15251,7 @@
         <v>151.33060699999999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>389</v>
       </c>
@@ -14595,7 +15289,7 @@
         <v>177.92443599999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>394</v>
       </c>
@@ -14633,7 +15327,7 @@
         <v>242.98074299999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>399</v>
       </c>
@@ -14671,7 +15365,7 @@
         <v>403.30668100000003</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>404</v>
       </c>
@@ -14709,7 +15403,7 @@
         <v>435.88518900000003</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>409</v>
       </c>
@@ -14747,7 +15441,7 @@
         <v>407.37785000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>414</v>
       </c>
@@ -14785,7 +15479,7 @@
         <v>405.47044299999999</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>419</v>
       </c>
@@ -14823,7 +15517,7 @@
         <v>362.69264800000002</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>424</v>
       </c>
@@ -14861,7 +15555,7 @@
         <v>418.895535</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>429</v>
       </c>
@@ -14899,7 +15593,7 @@
         <v>369.55015700000001</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>434</v>
       </c>
@@ -14937,7 +15631,7 @@
         <v>401.15207400000003</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>439</v>
       </c>
@@ -14975,7 +15669,7 @@
         <v>381.57750199999998</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>444</v>
       </c>
@@ -15013,7 +15707,7 @@
         <v>386.820582</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>449</v>
       </c>
@@ -15051,7 +15745,7 @@
         <v>364.88692900000001</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>454</v>
       </c>
@@ -15089,7 +15783,7 @@
         <v>399.24466699999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>459</v>
       </c>
@@ -15127,7 +15821,7 @@
         <v>390.63844699999999</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>464</v>
       </c>
@@ -15165,7 +15859,7 @@
         <v>382.63038999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>469</v>
       </c>
@@ -15203,7 +15897,7 @@
         <v>409.45005600000002</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>474</v>
       </c>
@@ -15241,7 +15935,7 @@
         <v>366.66921000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>479</v>
       </c>
@@ -15279,7 +15973,7 @@
         <v>393.83678700000002</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>484</v>
       </c>
@@ -15317,7 +16011,7 @@
         <v>430.24231700000001</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>489</v>
       </c>
@@ -15355,7 +16049,7 @@
         <v>374.109622</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>494</v>
       </c>
@@ -15393,7 +16087,7 @@
         <v>412.90475199999997</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>499</v>
       </c>
@@ -15431,7 +16125,7 @@
         <v>446.40186799999998</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>504</v>
       </c>
@@ -15469,7 +16163,7 @@
         <v>363.03445499999998</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>509</v>
       </c>
@@ -15507,7 +16201,7 @@
         <v>411.50395200000003</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>514</v>
       </c>
@@ -15545,7 +16239,7 @@
         <v>371.70781599999998</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>519</v>
       </c>
@@ -15583,7 +16277,7 @@
         <v>422.07556399999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>524</v>
       </c>
@@ -15621,7 +16315,7 @@
         <v>384.62630100000001</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>529</v>
       </c>
@@ -15659,7 +16353,7 @@
         <v>386.23767800000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>534</v>
       </c>
@@ -15697,7 +16391,7 @@
         <v>372.93771199999998</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>539</v>
       </c>
@@ -15735,7 +16429,7 @@
         <v>410.26184899999998</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>544</v>
       </c>
@@ -15773,7 +16467,7 @@
         <v>439.953307</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>549</v>
       </c>
@@ -15811,7 +16505,7 @@
         <v>374.08520800000002</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>554</v>
       </c>
@@ -15849,7 +16543,7 @@
         <v>407.48466400000001</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>559</v>
       </c>
@@ -15887,7 +16581,7 @@
         <v>433.64513099999999</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>564</v>
       </c>
@@ -15925,7 +16619,7 @@
         <v>424.871059</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>569</v>
       </c>
@@ -15963,7 +16657,7 @@
         <v>445.73961600000001</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>574</v>
       </c>
@@ -16001,7 +16695,7 @@
         <v>438.51893699999999</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>579</v>
       </c>
@@ -16039,7 +16733,7 @@
         <v>426.97683599999999</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>584</v>
       </c>
@@ -16077,7 +16771,7 @@
         <v>412.32795199999998</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>589</v>
       </c>
@@ -16115,7 +16809,7 @@
         <v>400.74922900000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>594</v>
       </c>
@@ -16153,7 +16847,7 @@
         <v>362.15552200000002</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>599</v>
       </c>
@@ -16191,7 +16885,7 @@
         <v>567.590869</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>604</v>
       </c>
@@ -16229,7 +16923,7 @@
         <v>623.28409699999997</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>609</v>
       </c>
@@ -16267,7 +16961,7 @@
         <v>567.30704700000001</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>614</v>
       </c>
@@ -16305,7 +16999,7 @@
         <v>570.636616</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>619</v>
       </c>
@@ -16343,7 +17037,7 @@
         <v>598.33826699999997</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>624</v>
       </c>
@@ -16381,7 +17075,7 @@
         <v>620.47028999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>629</v>
       </c>
@@ -16419,7 +17113,7 @@
         <v>633.44676000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>634</v>
       </c>
@@ -16457,7 +17151,7 @@
         <v>621.20578599999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>639</v>
       </c>
@@ -16495,7 +17189,7 @@
         <v>633.483383</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>644</v>
       </c>
@@ -16533,7 +17227,7 @@
         <v>553.12204399999996</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>649</v>
       </c>
@@ -16571,7 +17265,7 @@
         <v>625.32273299999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>654</v>
       </c>
@@ -16609,7 +17303,7 @@
         <v>563.74248499999999</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>659</v>
       </c>
@@ -16647,7 +17341,7 @@
         <v>588.27021100000002</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>664</v>
       </c>
@@ -16685,7 +17379,7 @@
         <v>630.83437600000002</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>669</v>
       </c>
@@ -16723,7 +17417,7 @@
         <v>598.21314099999995</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>674</v>
       </c>
@@ -16761,7 +17455,7 @@
         <v>630.33692399999995</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>679</v>
       </c>
@@ -16799,7 +17493,7 @@
         <v>622.73171200000002</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>684</v>
       </c>
@@ -16837,7 +17531,7 @@
         <v>554.59913900000004</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>689</v>
       </c>
@@ -16875,7 +17569,7 @@
         <v>555.79241300000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>694</v>
       </c>
@@ -16913,7 +17607,7 @@
         <v>639.88311399999998</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>699</v>
       </c>
@@ -16951,7 +17645,7 @@
         <v>640.38666999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>704</v>
       </c>
@@ -16989,7 +17683,7 @@
         <v>583.265175</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>709</v>
       </c>
@@ -17027,7 +17721,7 @@
         <v>563.39457400000003</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>714</v>
       </c>
@@ -17065,7 +17759,7 @@
         <v>620.85482300000001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>719</v>
       </c>
@@ -17103,7 +17797,7 @@
         <v>632.43049399999995</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>724</v>
       </c>
@@ -17141,7 +17835,7 @@
         <v>563.39457400000003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>729</v>
       </c>
@@ -17179,7 +17873,7 @@
         <v>570.81667500000003</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>734</v>
       </c>
@@ -17217,7 +17911,7 @@
         <v>605.34836900000005</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>739</v>
       </c>
@@ -17255,7 +17949,7 @@
         <v>608.08282699999995</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>744</v>
       </c>
@@ -17293,7 +17987,7 @@
         <v>600.78585199999998</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>749</v>
       </c>
@@ -17331,7 +18025,7 @@
         <v>610.33509300000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>754</v>
       </c>
@@ -17369,7 +18063,7 @@
         <v>597.566149</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>759</v>
       </c>
@@ -17407,7 +18101,7 @@
         <v>601.67088799999999</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>764</v>
       </c>
@@ -17445,7 +18139,7 @@
         <v>601.67699200000004</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>769</v>
       </c>
@@ -17483,7 +18177,7 @@
         <v>585.52964899999995</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>774</v>
       </c>
@@ -17521,7 +18215,7 @@
         <v>569.80956500000002</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>779</v>
       </c>
@@ -17559,7 +18253,7 @@
         <v>597.11142299999995</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>784</v>
       </c>
@@ -17597,7 +18291,7 @@
         <v>561.841182</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>789</v>
       </c>
@@ -17635,7 +18329,7 @@
         <v>616.57002499999999</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>794</v>
       </c>
@@ -17673,7 +18367,7 @@
         <v>589.16745500000002</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>799</v>
       </c>
@@ -17711,7 +18405,7 @@
         <v>760.38239699999997</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>804</v>
       </c>
@@ -17749,7 +18443,7 @@
         <v>831.61870199999998</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>809</v>
       </c>
@@ -17787,7 +18481,7 @@
         <v>757.55638299999998</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>814</v>
       </c>
@@ -17825,7 +18519,7 @@
         <v>827.96258399999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>819</v>
       </c>
@@ -17863,7 +18557,7 @@
         <v>820.65950499999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>824</v>
       </c>
@@ -17901,7 +18595,7 @@
         <v>835.07950100000005</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>829</v>
       </c>
@@ -17939,7 +18633,7 @@
         <v>751.55339200000003</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>834</v>
       </c>
@@ -17977,7 +18671,7 @@
         <v>761.13620400000002</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>839</v>
       </c>
@@ -18015,7 +18709,7 @@
         <v>790.65675799999997</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>844</v>
       </c>
@@ -18053,7 +18747,7 @@
         <v>771.40263100000004</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>849</v>
       </c>
@@ -18091,7 +18785,7 @@
         <v>838.97366299999999</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>854</v>
       </c>
@@ -18129,7 +18823,7 @@
         <v>803.66069500000003</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>859</v>
       </c>
@@ -18167,7 +18861,7 @@
         <v>766.91946199999995</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>864</v>
       </c>
@@ -18205,7 +18899,7 @@
         <v>776.60603700000001</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>869</v>
       </c>
@@ -18243,7 +18937,7 @@
         <v>784.84908600000006</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>874</v>
       </c>
@@ -18281,7 +18975,7 @@
         <v>791.11758799999996</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>879</v>
       </c>
@@ -18319,7 +19013,7 @@
         <v>800.56611799999996</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>884</v>
       </c>
@@ -18357,7 +19051,7 @@
         <v>773.75560800000005</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>889</v>
       </c>
@@ -18395,7 +19089,7 @@
         <v>840.75289199999997</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>894</v>
       </c>
@@ -18433,7 +19127,7 @@
         <v>756.56453099999999</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>899</v>
       </c>
@@ -18471,7 +19165,7 @@
         <v>779.18485099999998</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>904</v>
       </c>
@@ -18509,7 +19203,7 @@
         <v>789.76867000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>909</v>
       </c>
@@ -18547,7 +19241,7 @@
         <v>806.82851600000004</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>914</v>
       </c>
@@ -18585,7 +19279,7 @@
         <v>806.81936099999996</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>919</v>
       </c>
@@ -18623,7 +19317,7 @@
         <v>810.50294499999995</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>924</v>
       </c>
@@ -18661,7 +19355,7 @@
         <v>766.94997999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>929</v>
       </c>
@@ -18699,7 +19393,7 @@
         <v>809.71861899999999</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>934</v>
       </c>
@@ -18737,7 +19431,7 @@
         <v>751.27872600000001</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>939</v>
       </c>
@@ -18775,7 +19469,7 @@
         <v>848.409986</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>944</v>
       </c>
@@ -18813,7 +19507,7 @@
         <v>847.39371900000003</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>950</v>
       </c>
@@ -18851,7 +19545,7 @@
         <v>761.87780399999997</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>955</v>
       </c>
@@ -18889,7 +19583,7 @@
         <v>786.40247799999997</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>960</v>
       </c>
@@ -18927,7 +19621,7 @@
         <v>752.00811799999997</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>965</v>
       </c>
@@ -18965,7 +19659,7 @@
         <v>758.32239800000002</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>970</v>
       </c>
@@ -19003,7 +19697,7 @@
         <v>818.00439500000005</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>975</v>
       </c>
@@ -19041,7 +19735,7 @@
         <v>788.98739599999999</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>980</v>
       </c>
@@ -19079,7 +19773,7 @@
         <v>818.297372</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>985</v>
       </c>
@@ -19117,7 +19811,7 @@
         <v>776.57551799999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>990</v>
       </c>
@@ -19155,7 +19849,7 @@
         <v>794.11450500000001</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>995</v>
       </c>
@@ -19206,12 +19900,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>500000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1150</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1160</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20790</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3799</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13818</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2287</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2431</v>
+      </c>
+      <c r="D3" s="9">
+        <v>42542</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7646</v>
+      </c>
+      <c r="F3" s="9">
+        <v>26009</v>
+      </c>
+      <c r="G3" s="9">
+        <v>41599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3877</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3616</v>
+      </c>
+      <c r="D4" s="9">
+        <v>62616</v>
+      </c>
+      <c r="E4" s="9">
+        <v>12197</v>
+      </c>
+      <c r="F4" s="9">
+        <v>39852</v>
+      </c>
+      <c r="G4" s="9">
+        <v>63488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4664</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5449</v>
+      </c>
+      <c r="D5" s="9">
+        <v>86555</v>
+      </c>
+      <c r="E5" s="9">
+        <v>15446</v>
+      </c>
+      <c r="F5" s="9">
+        <v>52938</v>
+      </c>
+      <c r="G5" s="9">
+        <v>86882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2500000</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5914</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5865</v>
+      </c>
+      <c r="D6" s="9">
+        <v>101866</v>
+      </c>
+      <c r="E6" s="9">
+        <v>19930</v>
+      </c>
+      <c r="F6" s="9">
+        <v>71615</v>
+      </c>
+      <c r="G6" s="9">
+        <v>105312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="B7" s="10">
+        <v>7082</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7059</v>
+      </c>
+      <c r="D7" s="9">
+        <v>128830</v>
+      </c>
+      <c r="E7" s="9">
+        <v>23222</v>
+      </c>
+      <c r="F7" s="9">
+        <v>80213</v>
+      </c>
+      <c r="G7" s="9">
+        <v>124977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>3500000</v>
+      </c>
+      <c r="B8" s="10">
+        <v>8118</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8740</v>
+      </c>
+      <c r="D8" s="9">
+        <v>147303</v>
+      </c>
+      <c r="E8" s="9">
+        <v>26994</v>
+      </c>
+      <c r="F8" s="9">
+        <v>92225</v>
+      </c>
+      <c r="G8" s="9">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>4000000</v>
+      </c>
+      <c r="B9" s="10">
+        <v>9969</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9750</v>
+      </c>
+      <c r="D9" s="9">
+        <v>166039</v>
+      </c>
+      <c r="E9" s="9">
+        <v>31904</v>
+      </c>
+      <c r="F9" s="9">
+        <v>106449</v>
+      </c>
+      <c r="G9" s="9">
+        <v>167247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>4500000</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10607</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10924</v>
+      </c>
+      <c r="D10" s="9">
+        <v>191574</v>
+      </c>
+      <c r="E10" s="9">
+        <v>35080</v>
+      </c>
+      <c r="F10" s="9">
+        <v>118704</v>
+      </c>
+      <c r="G10" s="9">
+        <v>189237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="B11" s="10">
+        <v>11893</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11817</v>
+      </c>
+      <c r="D11" s="9">
+        <v>206258</v>
+      </c>
+      <c r="E11" s="9">
+        <v>38313</v>
+      </c>
+      <c r="F11" s="9">
+        <v>134314</v>
+      </c>
+      <c r="G11" s="9">
+        <v>211274</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Возрастание</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Количество элементов</t>
+  </si>
+  <si>
+    <t>Возрастание (мкС)</t>
+  </si>
+  <si>
+    <t>Убывание(мкС)</t>
+  </si>
+  <si>
+    <t>Случайная(мкС)</t>
+  </si>
+  <si>
+    <t>Синусоидальная(мкС)</t>
+  </si>
+  <si>
+    <t>Пилообразная(мкС)</t>
+  </si>
+  <si>
+    <t>Ступенчатая(мкС)</t>
   </si>
 </sst>
 </file>
@@ -258,6 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -266,13 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2259,11 +2277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173070848"/>
-        <c:axId val="209276864"/>
+        <c:axId val="159918592"/>
+        <c:axId val="212621504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173070848"/>
+        <c:axId val="159918592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2323,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209276864"/>
+        <c:crossAx val="212621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2313,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209276864"/>
+        <c:axId val="212621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2382,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173070848"/>
+        <c:crossAx val="159918592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,11 +4436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184329728"/>
-        <c:axId val="209278592"/>
+        <c:axId val="161351168"/>
+        <c:axId val="215916544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184329728"/>
+        <c:axId val="161351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209278592"/>
+        <c:crossAx val="215916544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4472,7 +4490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209278592"/>
+        <c:axId val="215916544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4541,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184329728"/>
+        <c:crossAx val="161351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6572,11 +6590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184330240"/>
-        <c:axId val="209280320"/>
+        <c:axId val="161351680"/>
+        <c:axId val="215918272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184330240"/>
+        <c:axId val="161351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,7 +6636,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209280320"/>
+        <c:crossAx val="215918272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6626,7 +6644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209280320"/>
+        <c:axId val="215918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,7 +6695,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184330240"/>
+        <c:crossAx val="161351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6798,7 +6816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8726,11 +8743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184330752"/>
-        <c:axId val="185074816"/>
+        <c:axId val="161352192"/>
+        <c:axId val="215920000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184330752"/>
+        <c:axId val="161352192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8772,7 +8789,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185074816"/>
+        <c:crossAx val="215920000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8780,7 +8797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185074816"/>
+        <c:axId val="215920000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8831,7 +8848,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184330752"/>
+        <c:crossAx val="161352192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8845,7 +8862,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8942,7 +8958,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Возрастание</c:v>
+                  <c:v>Возрастание (мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9036,7 +9052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Убывание</c:v>
+                  <c:v>Убывание(мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9130,7 +9146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Случайная</c:v>
+                  <c:v>Случайная(мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9224,7 +9240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Синусоидальная</c:v>
+                  <c:v>Синусоидальная(мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9318,7 +9334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Пилообразная</c:v>
+                  <c:v>Пилообразная(мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9412,7 +9428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ступенчатая</c:v>
+                  <c:v>Ступенчатая(мкС)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9498,7 +9514,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9507,11 +9522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160757760"/>
-        <c:axId val="186517760"/>
+        <c:axId val="161808384"/>
+        <c:axId val="215921728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160757760"/>
+        <c:axId val="161808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9522,7 +9537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186517760"/>
+        <c:crossAx val="215921728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9530,7 +9545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186517760"/>
+        <c:axId val="215921728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +9556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160757760"/>
+        <c:crossAx val="161808384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12208,7 +12223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12218,8 +12233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V51" sqref="V51"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12232,22 +12247,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -19903,45 +19918,44 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>500000</v>
       </c>
       <c r="B2" s="3">
@@ -19964,209 +19978,209 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>1000000</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>2287</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>2431</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>42542</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>7646</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>26009</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>41599</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>1500000</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>3877</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>3616</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>62616</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>12197</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>39852</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>63488</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>2000000</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>4664</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>5449</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>86555</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>15446</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>52938</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>86882</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>2500000</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>5914</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>5865</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>101866</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>19930</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>71615</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>105312</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>3000000</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>7082</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>7059</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>128830</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>23222</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>80213</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>124977</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>3500000</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>8118</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>8740</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>147303</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>26994</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>92225</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>146000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>4000000</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>9969</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>9750</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>166039</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>31904</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>106449</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>167247</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>4500000</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>10607</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>10924</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>191574</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>35080</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>118704</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>189237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>5000000</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>11893</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>11817</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>206258</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>38313</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>134314</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>211274</v>
       </c>
     </row>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -2277,11 +2277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159918592"/>
-        <c:axId val="212621504"/>
+        <c:axId val="177750528"/>
+        <c:axId val="219699968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159918592"/>
+        <c:axId val="177750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2323,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212621504"/>
+        <c:crossAx val="219699968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2331,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212621504"/>
+        <c:axId val="219699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2382,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159918592"/>
+        <c:crossAx val="177750528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4436,11 +4436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161351168"/>
-        <c:axId val="215916544"/>
+        <c:axId val="177753600"/>
+        <c:axId val="168624704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161351168"/>
+        <c:axId val="177753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,7 +4482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215916544"/>
+        <c:crossAx val="168624704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4490,7 +4490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215916544"/>
+        <c:axId val="168624704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4541,7 +4541,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161351168"/>
+        <c:crossAx val="177753600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6590,11 +6590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161351680"/>
-        <c:axId val="215918272"/>
+        <c:axId val="178909184"/>
+        <c:axId val="168626432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161351680"/>
+        <c:axId val="178909184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,7 +6636,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215918272"/>
+        <c:crossAx val="168626432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6644,7 +6644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215918272"/>
+        <c:axId val="168626432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6695,7 +6695,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161351680"/>
+        <c:crossAx val="178909184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6816,6 +6816,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8743,11 +8744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161352192"/>
-        <c:axId val="215920000"/>
+        <c:axId val="178909696"/>
+        <c:axId val="168628160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161352192"/>
+        <c:axId val="178909696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8789,7 +8790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215920000"/>
+        <c:crossAx val="168628160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8797,7 +8798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215920000"/>
+        <c:axId val="168628160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8848,7 +8849,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161352192"/>
+        <c:crossAx val="178909696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8862,6 +8863,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9522,11 +9524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161808384"/>
-        <c:axId val="215921728"/>
+        <c:axId val="177750016"/>
+        <c:axId val="168629888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161808384"/>
+        <c:axId val="177750016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9537,7 +9539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215921728"/>
+        <c:crossAx val="168629888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9545,7 +9547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215921728"/>
+        <c:axId val="168629888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9556,7 +9558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161808384"/>
+        <c:crossAx val="177750016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12223,7 +12225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12233,7 +12235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -19918,7 +19920,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
